--- a/doc/sourceFiles/fixedConfigSizes.xlsx
+++ b/doc/sourceFiles/fixedConfigSizes.xlsx
@@ -8,32 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/workspace-sts-3.9.5.RELEASE-WV2/weathervane/doc/sourceFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4327CE9F-A69D-8346-83C0-ED56B93394B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C49C8-5572-D142-AE72-5B8C552B7C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{AF3EA68B-9CB6-DF4D-B5EE-93D818FB3527}"/>
+    <workbookView xWindow="32520" yWindow="1120" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{AF3EA68B-9CB6-DF4D-B5EE-93D818FB3527}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table1" sheetId="2" r:id="rId2"/>
+    <sheet name="Table2" sheetId="3" r:id="rId3"/>
+    <sheet name="readme" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>Weathervane Version:</t>
   </si>
@@ -117,17 +112,76 @@
   </si>
   <si>
     <t>Memory (MiB)</t>
+  </si>
+  <si>
+    <t>Memory (GiB)</t>
+  </si>
+  <si>
+    <t>Disk (GiB)</t>
+  </si>
+  <si>
+    <t>Number of&lt;BR&gt;Application&lt;BR&gt;Instances</t>
+  </si>
+  <si>
+    <t>Configuration&lt;BR&gt;Size</t>
+  </si>
+  <si>
+    <t>To convert spreadsheets to markdown tables:</t>
+  </si>
+  <si>
+    <t>https://tableconvert.com/</t>
+  </si>
+  <si>
+    <t>Go to the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Import" </t>
+  </si>
+  <si>
+    <t>Paste into the popup box</t>
+  </si>
+  <si>
+    <t>Click Import Data</t>
+  </si>
+  <si>
+    <t>Click Copy at the bottom</t>
+  </si>
+  <si>
+    <t>right side of the page</t>
+  </si>
+  <si>
+    <t>next to the markdown</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Paste this into usersGuide.md</t>
+  </si>
+  <si>
+    <t>Copy all of the yellow cells from the spreadsheet you want to convert (Table1, Table2, etc.)</t>
+  </si>
+  <si>
+    <t>Memory&lt;BR&gt;(GiB)</t>
+  </si>
+  <si>
+    <t>Disk&lt;BR&gt;(GiB)</t>
+  </si>
+  <si>
+    <t>(there are other excel to markdown converters online too)</t>
+  </si>
+  <si>
+    <t>Also see this page: https://tableconvert.com/Excel-Converter/excel-to-markdown-table.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,16 +196,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -399,12 +467,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -428,12 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,9 +546,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,6 +585,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713BE85B-979B-794A-8CD3-1F2AF2AEE408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701800" y="1028700"/>
+          <a:ext cx="1320800" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797F42E7-1C16-6A44-B8C6-C91D8AF76B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1663700" y="1625600"/>
+          <a:ext cx="2806700" cy="2301865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBF32BD-2405-5E45-B34F-81FEC6D31F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="4064000"/>
+          <a:ext cx="1244600" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,27 +1021,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336BD292-11A6-9249-B2F1-03CB5FB5427D}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
@@ -815,40 +1064,40 @@
     </row>
     <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="37" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="34" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="33" t="s">
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="35"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
     </row>
     <row r="4" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1543,7 +1792,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1600,1186 +1849,2438 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="31" t="s">
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="31" t="s">
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="31" t="s">
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="32"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="S22" s="22"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
       <c r="T22" s="22"/>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="P23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="R23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
+      <c r="S23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="22"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="23">
         <f>$A24*C$15</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C24" s="26">
-        <f>$A24*D$15</f>
-        <v>5700</v>
-      </c>
-      <c r="D24" s="25">
+      <c r="C24" s="39">
+        <f>($A24*D$15)/1024</f>
+        <v>5.56640625</v>
+      </c>
+      <c r="D24" s="41">
+        <f>A24*E15</f>
+        <v>32</v>
+      </c>
+      <c r="E24" s="23">
         <f>$A24*G$15</f>
         <v>0.48199999999999998</v>
       </c>
-      <c r="E24" s="26">
-        <f>$A24*H$15</f>
-        <v>5700</v>
-      </c>
-      <c r="F24" s="25">
+      <c r="F24" s="39">
+        <f>($A24*H$15)/1024</f>
+        <v>5.56640625</v>
+      </c>
+      <c r="G24" s="44">
+        <f>A24*I15</f>
+        <v>32</v>
+      </c>
+      <c r="H24" s="23">
         <f>$A24*K$15</f>
         <v>2.2959999999999998</v>
       </c>
-      <c r="G24" s="26">
-        <f>$A24*L$15</f>
-        <v>54700</v>
-      </c>
-      <c r="H24" s="25">
+      <c r="I24" s="39">
+        <f>($A24*L$15)/1024</f>
+        <v>53.41796875</v>
+      </c>
+      <c r="J24" s="44">
+        <f>A24*M15</f>
+        <v>150</v>
+      </c>
+      <c r="K24" s="23">
         <f>$A24*O$15</f>
         <v>4</v>
       </c>
-      <c r="I24" s="26">
-        <f>$A24*P$15</f>
-        <v>54700</v>
-      </c>
-      <c r="J24" s="25">
+      <c r="L24" s="39">
+        <f>($A24*P$15)/1024</f>
+        <v>53.41796875</v>
+      </c>
+      <c r="M24" s="44">
+        <f>A24*Q15</f>
+        <v>150</v>
+      </c>
+      <c r="N24" s="23">
         <f>$A24*S$15</f>
         <v>0</v>
       </c>
-      <c r="K24" s="29">
+      <c r="O24" s="34">
         <f>$A24*T$15</f>
         <v>0</v>
       </c>
-      <c r="L24" s="25">
+      <c r="P24" s="34"/>
+      <c r="Q24" s="23">
         <f>$A24*V$15</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="R24" s="34">
         <f>$A24*W$15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S24" s="25"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="25">
-        <f t="shared" ref="B25:C25" si="0">$A25*C$15</f>
+      <c r="B25" s="23">
+        <f t="shared" ref="B25" si="0">$A25*C$15</f>
         <v>1.5820000000000001</v>
       </c>
-      <c r="C25" s="26">
-        <f t="shared" si="0"/>
-        <v>11400</v>
-      </c>
-      <c r="D25" s="25">
-        <f t="shared" ref="D25:D43" si="1">$A25*G$15</f>
+      <c r="C25" s="39">
+        <f>($A25*D$15)/1024</f>
+        <v>11.1328125</v>
+      </c>
+      <c r="D25" s="41">
+        <f>A25*E15</f>
+        <v>64</v>
+      </c>
+      <c r="E25" s="23">
+        <f>$A25*G$15</f>
         <v>0.96399999999999997</v>
       </c>
-      <c r="E25" s="26">
-        <f t="shared" ref="E25:E43" si="2">$A25*H$15</f>
-        <v>11400</v>
-      </c>
-      <c r="F25" s="25">
-        <f t="shared" ref="F25:F43" si="3">$A25*K$15</f>
+      <c r="F25" s="39">
+        <f>($A25*H$15)/1024</f>
+        <v>11.1328125</v>
+      </c>
+      <c r="G25" s="44">
+        <f>A25*I15</f>
+        <v>64</v>
+      </c>
+      <c r="H25" s="23">
+        <f>$A25*K$15</f>
         <v>4.5919999999999996</v>
       </c>
-      <c r="G25" s="26">
-        <f t="shared" ref="G25:G43" si="4">$A25*L$15</f>
-        <v>109400</v>
-      </c>
-      <c r="H25" s="25">
-        <f t="shared" ref="H25:H43" si="5">$A25*O$15</f>
+      <c r="I25" s="39">
+        <f>($A25*L$15)/1024</f>
+        <v>106.8359375</v>
+      </c>
+      <c r="J25" s="44">
+        <f>A25*M15</f>
+        <v>300</v>
+      </c>
+      <c r="K25" s="23">
+        <f>$A25*O$15</f>
         <v>8</v>
       </c>
-      <c r="I25" s="26">
-        <f t="shared" ref="I25:I43" si="6">$A25*P$15</f>
-        <v>109400</v>
-      </c>
-      <c r="J25" s="25">
-        <f t="shared" ref="J25:J43" si="7">$A25*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" ref="K25:K43" si="8">$A25*T$15</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="25">
-        <f t="shared" ref="L25:L43" si="9">$A25*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="29">
-        <f t="shared" ref="M25:M43" si="10">$A25*W$15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L25" s="39">
+        <f>($A25*P$15)/1024</f>
+        <v>106.8359375</v>
+      </c>
+      <c r="M25" s="44">
+        <f>A25*Q15</f>
+        <v>300</v>
+      </c>
+      <c r="N25" s="23">
+        <f>$A25*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="34">
+        <f>$A25*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="23">
+        <f>$A25*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="34">
+        <f>$A25*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" ref="A26:A43" si="11">A25+1</f>
+        <f t="shared" ref="A26:A43" si="1">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="25">
-        <f t="shared" ref="B26:C26" si="12">$A26*C$15</f>
+      <c r="B26" s="23">
+        <f t="shared" ref="B26" si="2">$A26*C$15</f>
         <v>2.3730000000000002</v>
       </c>
-      <c r="C26" s="26">
-        <f t="shared" si="12"/>
-        <v>17100</v>
-      </c>
-      <c r="D26" s="25">
+      <c r="C26" s="39">
+        <f>($A26*D$15)/1024</f>
+        <v>16.69921875</v>
+      </c>
+      <c r="D26" s="41">
+        <f>A26*E15</f>
+        <v>96</v>
+      </c>
+      <c r="E26" s="23">
+        <f>$A26*G$15</f>
+        <v>1.446</v>
+      </c>
+      <c r="F26" s="39">
+        <f>($A26*H$15)/1024</f>
+        <v>16.69921875</v>
+      </c>
+      <c r="G26" s="44">
+        <f>A26*I15</f>
+        <v>96</v>
+      </c>
+      <c r="H26" s="23">
+        <f>$A26*K$15</f>
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="I26" s="39">
+        <f>($A26*L$15)/1024</f>
+        <v>160.25390625</v>
+      </c>
+      <c r="J26" s="44">
+        <f>A26*M15</f>
+        <v>450</v>
+      </c>
+      <c r="K26" s="23">
+        <f>$A26*O$15</f>
+        <v>12</v>
+      </c>
+      <c r="L26" s="39">
+        <f>($A26*P$15)/1024</f>
+        <v>160.25390625</v>
+      </c>
+      <c r="M26" s="44">
+        <f>A26*Q15</f>
+        <v>450</v>
+      </c>
+      <c r="N26" s="23">
+        <f>$A26*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="34">
+        <f>$A26*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="23">
+        <f>$A26*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="34">
+        <f>$A26*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27">
         <f t="shared" si="1"/>
-        <v>1.446</v>
-      </c>
-      <c r="E26" s="26">
-        <f t="shared" si="2"/>
-        <v>17100</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" si="3"/>
-        <v>6.8879999999999999</v>
-      </c>
-      <c r="G26" s="26">
-        <f t="shared" si="4"/>
-        <v>164100</v>
-      </c>
-      <c r="H26" s="25">
+        <v>4</v>
+      </c>
+      <c r="B27" s="23">
+        <f t="shared" ref="B27" si="3">$A27*C$15</f>
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="C27" s="39">
+        <f>($A27*D$15)/1024</f>
+        <v>22.265625</v>
+      </c>
+      <c r="D27" s="41">
+        <f>A27*E15</f>
+        <v>128</v>
+      </c>
+      <c r="E27" s="23">
+        <f>$A27*G$15</f>
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="F27" s="39">
+        <f>($A27*H$15)/1024</f>
+        <v>22.265625</v>
+      </c>
+      <c r="G27" s="44">
+        <f>A27*I15</f>
+        <v>128</v>
+      </c>
+      <c r="H27" s="23">
+        <f>$A27*K$15</f>
+        <v>9.1839999999999993</v>
+      </c>
+      <c r="I27" s="39">
+        <f>($A27*L$15)/1024</f>
+        <v>213.671875</v>
+      </c>
+      <c r="J27" s="44">
+        <f>A27*M15</f>
+        <v>600</v>
+      </c>
+      <c r="K27" s="23">
+        <f>$A27*O$15</f>
+        <v>16</v>
+      </c>
+      <c r="L27" s="39">
+        <f>($A27*P$15)/1024</f>
+        <v>213.671875</v>
+      </c>
+      <c r="M27" s="44">
+        <f>A27*Q15</f>
+        <v>600</v>
+      </c>
+      <c r="N27" s="23">
+        <f>$A27*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="34">
+        <f>$A27*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="23">
+        <f>$A27*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="34">
+        <f>$A27*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B28" s="23">
+        <f t="shared" ref="B28" si="4">$A28*C$15</f>
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="C28" s="39">
+        <f>($A28*D$15)/1024</f>
+        <v>27.83203125</v>
+      </c>
+      <c r="D28" s="41">
+        <f>A28*E15</f>
+        <v>160</v>
+      </c>
+      <c r="E28" s="23">
+        <f>$A28*G$15</f>
+        <v>2.41</v>
+      </c>
+      <c r="F28" s="39">
+        <f>($A28*H$15)/1024</f>
+        <v>27.83203125</v>
+      </c>
+      <c r="G28" s="44">
+        <f>A28*I15</f>
+        <v>160</v>
+      </c>
+      <c r="H28" s="23">
+        <f>$A28*K$15</f>
+        <v>11.479999999999999</v>
+      </c>
+      <c r="I28" s="39">
+        <f>($A28*L$15)/1024</f>
+        <v>267.08984375</v>
+      </c>
+      <c r="J28" s="44">
+        <f>A28*M15</f>
+        <v>750</v>
+      </c>
+      <c r="K28" s="23">
+        <f>$A28*O$15</f>
+        <v>20</v>
+      </c>
+      <c r="L28" s="39">
+        <f t="shared" ref="L28:L43" si="5">($A28*P$15)/1024</f>
+        <v>267.08984375</v>
+      </c>
+      <c r="M28" s="44">
+        <f>A28*Q15</f>
+        <v>750</v>
+      </c>
+      <c r="N28" s="23">
+        <f>$A28*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="34">
+        <f>$A28*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="23">
+        <f>$A28*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="34">
+        <f>$A28*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B29" s="23">
+        <f t="shared" ref="B29" si="6">$A29*C$15</f>
+        <v>4.7460000000000004</v>
+      </c>
+      <c r="C29" s="39">
+        <f>($A29*D$15)/1024</f>
+        <v>33.3984375</v>
+      </c>
+      <c r="D29" s="41">
+        <f>A29*E15</f>
+        <v>192</v>
+      </c>
+      <c r="E29" s="23">
+        <f>$A29*G$15</f>
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="F29" s="39">
+        <f>($A29*H$15)/1024</f>
+        <v>33.3984375</v>
+      </c>
+      <c r="G29" s="44">
+        <f>A29*I15</f>
+        <v>192</v>
+      </c>
+      <c r="H29" s="23">
+        <f>$A29*K$15</f>
+        <v>13.776</v>
+      </c>
+      <c r="I29" s="39">
+        <f>($A29*L$15)/1024</f>
+        <v>320.5078125</v>
+      </c>
+      <c r="J29" s="44">
+        <f>A29*M15</f>
+        <v>900</v>
+      </c>
+      <c r="K29" s="23">
+        <f>$A29*O$15</f>
+        <v>24</v>
+      </c>
+      <c r="L29" s="39">
         <f t="shared" si="5"/>
+        <v>320.5078125</v>
+      </c>
+      <c r="M29" s="44">
+        <f>A29*Q15</f>
+        <v>900</v>
+      </c>
+      <c r="N29" s="23">
+        <f>$A29*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="34">
+        <f>$A29*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="23">
+        <f>$A29*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="34">
+        <f>$A29*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B30" s="23">
+        <f t="shared" ref="B30" si="7">$A30*C$15</f>
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="C30" s="39">
+        <f>($A30*D$15)/1024</f>
+        <v>38.96484375</v>
+      </c>
+      <c r="D30" s="41">
+        <f>A30*E15</f>
+        <v>224</v>
+      </c>
+      <c r="E30" s="23">
+        <f>$A30*G$15</f>
+        <v>3.3739999999999997</v>
+      </c>
+      <c r="F30" s="39">
+        <f>($A30*H$15)/1024</f>
+        <v>38.96484375</v>
+      </c>
+      <c r="G30" s="44">
+        <f>A30*I15</f>
+        <v>224</v>
+      </c>
+      <c r="H30" s="23">
+        <f>$A30*K$15</f>
+        <v>16.071999999999999</v>
+      </c>
+      <c r="I30" s="39">
+        <f>($A30*L$15)/1024</f>
+        <v>373.92578125</v>
+      </c>
+      <c r="J30" s="44">
+        <f>A30*M15</f>
+        <v>1050</v>
+      </c>
+      <c r="K30" s="23">
+        <f>$A30*O$15</f>
+        <v>28</v>
+      </c>
+      <c r="L30" s="39">
+        <f t="shared" si="5"/>
+        <v>373.92578125</v>
+      </c>
+      <c r="M30" s="44">
+        <f>A30*Q15</f>
+        <v>1050</v>
+      </c>
+      <c r="N30" s="23">
+        <f>$A30*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="34">
+        <f>$A30*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="23">
+        <f>$A30*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="34">
+        <f>$A30*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="25"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B31" s="23">
+        <f t="shared" ref="B31" si="8">$A31*C$15</f>
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="C31" s="39">
+        <f>($A31*D$15)/1024</f>
+        <v>44.53125</v>
+      </c>
+      <c r="D31" s="41">
+        <f>A31*E15</f>
+        <v>256</v>
+      </c>
+      <c r="E31" s="23">
+        <f>$A31*G$15</f>
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="F31" s="39">
+        <f>($A31*H$15)/1024</f>
+        <v>44.53125</v>
+      </c>
+      <c r="G31" s="44">
+        <f>A31*I15</f>
+        <v>256</v>
+      </c>
+      <c r="H31" s="23">
+        <f>$A31*K$15</f>
+        <v>18.367999999999999</v>
+      </c>
+      <c r="I31" s="39">
+        <f>($A31*L$15)/1024</f>
+        <v>427.34375</v>
+      </c>
+      <c r="J31" s="44">
+        <f>A31*M15</f>
+        <v>1200</v>
+      </c>
+      <c r="K31" s="23">
+        <f>$A31*O$15</f>
+        <v>32</v>
+      </c>
+      <c r="L31" s="39">
+        <f t="shared" si="5"/>
+        <v>427.34375</v>
+      </c>
+      <c r="M31" s="44">
+        <f>A31*Q15</f>
+        <v>1200</v>
+      </c>
+      <c r="N31" s="23">
+        <f>$A31*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="34">
+        <f>$A31*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="23">
+        <f>$A31*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="34">
+        <f>$A31*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B32" s="23">
+        <f t="shared" ref="B32" si="9">$A32*C$15</f>
+        <v>7.1190000000000007</v>
+      </c>
+      <c r="C32" s="39">
+        <f>($A32*D$15)/1024</f>
+        <v>50.09765625</v>
+      </c>
+      <c r="D32" s="41">
+        <f>A32*E15</f>
+        <v>288</v>
+      </c>
+      <c r="E32" s="23">
+        <f>$A32*G$15</f>
+        <v>4.3380000000000001</v>
+      </c>
+      <c r="F32" s="39">
+        <f>($A32*H$15)/1024</f>
+        <v>50.09765625</v>
+      </c>
+      <c r="G32" s="44">
+        <f>A32*I15</f>
+        <v>288</v>
+      </c>
+      <c r="H32" s="23">
+        <f>$A32*K$15</f>
+        <v>20.663999999999998</v>
+      </c>
+      <c r="I32" s="39">
+        <f>($A32*L$15)/1024</f>
+        <v>480.76171875</v>
+      </c>
+      <c r="J32" s="44">
+        <f>A32*M15</f>
+        <v>1350</v>
+      </c>
+      <c r="K32" s="23">
+        <f>$A32*O$15</f>
+        <v>36</v>
+      </c>
+      <c r="L32" s="39">
+        <f t="shared" si="5"/>
+        <v>480.76171875</v>
+      </c>
+      <c r="M32" s="44">
+        <f>A32*Q15</f>
+        <v>1350</v>
+      </c>
+      <c r="N32" s="23">
+        <f>$A32*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="34">
+        <f>$A32*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="23">
+        <f>$A32*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="34">
+        <f>$A32*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B33" s="23">
+        <f t="shared" ref="B33" si="10">$A33*C$15</f>
+        <v>7.91</v>
+      </c>
+      <c r="C33" s="39">
+        <f>($A33*D$15)/1024</f>
+        <v>55.6640625</v>
+      </c>
+      <c r="D33" s="41">
+        <f>A33*E15</f>
+        <v>320</v>
+      </c>
+      <c r="E33" s="23">
+        <f>$A33*G$15</f>
+        <v>4.82</v>
+      </c>
+      <c r="F33" s="39">
+        <f>($A33*H$15)/1024</f>
+        <v>55.6640625</v>
+      </c>
+      <c r="G33" s="44">
+        <f>A33*I15</f>
+        <v>320</v>
+      </c>
+      <c r="H33" s="23">
+        <f>$A33*K$15</f>
+        <v>22.959999999999997</v>
+      </c>
+      <c r="I33" s="39">
+        <f>($A33*L$15)/1024</f>
+        <v>534.1796875</v>
+      </c>
+      <c r="J33" s="44">
+        <f>A33*M15</f>
+        <v>1500</v>
+      </c>
+      <c r="K33" s="23">
+        <f>$A33*O$15</f>
+        <v>40</v>
+      </c>
+      <c r="L33" s="39">
+        <f t="shared" si="5"/>
+        <v>534.1796875</v>
+      </c>
+      <c r="M33" s="44">
+        <f>A33*Q15</f>
+        <v>1500</v>
+      </c>
+      <c r="N33" s="23">
+        <f>$A33*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="34">
+        <f>$A33*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="23">
+        <f>$A33*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="34">
+        <f>$A33*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="25"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B34" s="23">
+        <f t="shared" ref="B34" si="11">$A34*C$15</f>
+        <v>8.7010000000000005</v>
+      </c>
+      <c r="C34" s="39">
+        <f>($A34*D$15)/1024</f>
+        <v>61.23046875</v>
+      </c>
+      <c r="D34" s="41">
+        <f>A34*E15</f>
+        <v>352</v>
+      </c>
+      <c r="E34" s="23">
+        <f>$A34*G$15</f>
+        <v>5.3019999999999996</v>
+      </c>
+      <c r="F34" s="39">
+        <f>($A34*H$15)/1024</f>
+        <v>61.23046875</v>
+      </c>
+      <c r="G34" s="44">
+        <f>A34*I15</f>
+        <v>352</v>
+      </c>
+      <c r="H34" s="23">
+        <f>$A34*K$15</f>
+        <v>25.255999999999997</v>
+      </c>
+      <c r="I34" s="39">
+        <f>($A34*L$15)/1024</f>
+        <v>587.59765625</v>
+      </c>
+      <c r="J34" s="44">
+        <f>A34*M15</f>
+        <v>1650</v>
+      </c>
+      <c r="K34" s="23">
+        <f>$A34*O$15</f>
+        <v>44</v>
+      </c>
+      <c r="L34" s="39">
+        <f t="shared" si="5"/>
+        <v>587.59765625</v>
+      </c>
+      <c r="M34" s="44">
+        <f>A34*Q15</f>
+        <v>1650</v>
+      </c>
+      <c r="N34" s="23">
+        <f>$A34*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="34">
+        <f>$A34*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="23">
+        <f>$A34*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="34">
+        <f>$A34*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I26" s="26">
-        <f t="shared" si="6"/>
-        <v>164100</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="B27" s="25">
-        <f t="shared" ref="B27:C27" si="13">$A27*C$15</f>
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="C27" s="26">
-        <f t="shared" si="13"/>
-        <v>22800</v>
-      </c>
-      <c r="D27" s="25">
+      <c r="B35" s="23">
+        <f t="shared" ref="B35" si="12">$A35*C$15</f>
+        <v>9.4920000000000009</v>
+      </c>
+      <c r="C35" s="39">
+        <f>($A35*D$15)/1024</f>
+        <v>66.796875</v>
+      </c>
+      <c r="D35" s="41">
+        <f>A35*E15</f>
+        <v>384</v>
+      </c>
+      <c r="E35" s="23">
+        <f>$A35*G$15</f>
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="F35" s="39">
+        <f>($A35*H$15)/1024</f>
+        <v>66.796875</v>
+      </c>
+      <c r="G35" s="44">
+        <f>A35*I15</f>
+        <v>384</v>
+      </c>
+      <c r="H35" s="23">
+        <f>$A35*K$15</f>
+        <v>27.552</v>
+      </c>
+      <c r="I35" s="39">
+        <f>($A35*L$15)/1024</f>
+        <v>641.015625</v>
+      </c>
+      <c r="J35" s="44">
+        <f>A35*M15</f>
+        <v>1800</v>
+      </c>
+      <c r="K35" s="23">
+        <f>$A35*O$15</f>
+        <v>48</v>
+      </c>
+      <c r="L35" s="39">
+        <f t="shared" si="5"/>
+        <v>641.015625</v>
+      </c>
+      <c r="M35" s="44">
+        <f>A35*Q15</f>
+        <v>1800</v>
+      </c>
+      <c r="N35" s="23">
+        <f>$A35*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="34">
+        <f>$A35*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="23">
+        <f>$A35*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="34">
+        <f>$A35*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36">
         <f t="shared" si="1"/>
-        <v>1.9279999999999999</v>
-      </c>
-      <c r="E27" s="26">
-        <f t="shared" si="2"/>
-        <v>22800</v>
-      </c>
-      <c r="F27" s="25">
-        <f t="shared" si="3"/>
-        <v>9.1839999999999993</v>
-      </c>
-      <c r="G27" s="26">
-        <f t="shared" si="4"/>
-        <v>218800</v>
-      </c>
-      <c r="H27" s="25">
+        <v>13</v>
+      </c>
+      <c r="B36" s="23">
+        <f t="shared" ref="B36" si="13">$A36*C$15</f>
+        <v>10.283000000000001</v>
+      </c>
+      <c r="C36" s="39">
+        <f>($A36*D$15)/1024</f>
+        <v>72.36328125</v>
+      </c>
+      <c r="D36" s="41">
+        <f>A36*E15</f>
+        <v>416</v>
+      </c>
+      <c r="E36" s="23">
+        <f>$A36*G$15</f>
+        <v>6.266</v>
+      </c>
+      <c r="F36" s="39">
+        <f>($A36*H$15)/1024</f>
+        <v>72.36328125</v>
+      </c>
+      <c r="G36" s="44">
+        <f>A36*I15</f>
+        <v>416</v>
+      </c>
+      <c r="H36" s="23">
+        <f>$A36*K$15</f>
+        <v>29.847999999999999</v>
+      </c>
+      <c r="I36" s="39">
+        <f>($A36*L$15)/1024</f>
+        <v>694.43359375</v>
+      </c>
+      <c r="J36" s="44">
+        <f>A36*M15</f>
+        <v>1950</v>
+      </c>
+      <c r="K36" s="23">
+        <f>$A36*O$15</f>
+        <v>52</v>
+      </c>
+      <c r="L36" s="39">
         <f t="shared" si="5"/>
+        <v>694.43359375</v>
+      </c>
+      <c r="M36" s="44">
+        <f>A36*Q15</f>
+        <v>1950</v>
+      </c>
+      <c r="N36" s="23">
+        <f>$A36*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="34">
+        <f>$A36*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="23">
+        <f>$A36*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="34">
+        <f>$A36*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="25"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B37" s="23">
+        <f t="shared" ref="B37" si="14">$A37*C$15</f>
+        <v>11.074</v>
+      </c>
+      <c r="C37" s="39">
+        <f>($A37*D$15)/1024</f>
+        <v>77.9296875</v>
+      </c>
+      <c r="D37" s="41">
+        <f>A37*E15</f>
+        <v>448</v>
+      </c>
+      <c r="E37" s="23">
+        <f>$A37*G$15</f>
+        <v>6.7479999999999993</v>
+      </c>
+      <c r="F37" s="39">
+        <f>($A37*H$15)/1024</f>
+        <v>77.9296875</v>
+      </c>
+      <c r="G37" s="44">
+        <f>A37*I15</f>
+        <v>448</v>
+      </c>
+      <c r="H37" s="23">
+        <f>$A37*K$15</f>
+        <v>32.143999999999998</v>
+      </c>
+      <c r="I37" s="39">
+        <f>($A37*L$15)/1024</f>
+        <v>747.8515625</v>
+      </c>
+      <c r="J37" s="44">
+        <f>A37*M15</f>
+        <v>2100</v>
+      </c>
+      <c r="K37" s="23">
+        <f>$A37*O$15</f>
+        <v>56</v>
+      </c>
+      <c r="L37" s="39">
+        <f t="shared" si="5"/>
+        <v>747.8515625</v>
+      </c>
+      <c r="M37" s="44">
+        <f>A37*Q15</f>
+        <v>2100</v>
+      </c>
+      <c r="N37" s="23">
+        <f>$A37*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="34">
+        <f>$A37*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="23">
+        <f>$A37*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="34">
+        <f>$A37*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="25"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B38" s="23">
+        <f t="shared" ref="B38" si="15">$A38*C$15</f>
+        <v>11.865</v>
+      </c>
+      <c r="C38" s="39">
+        <f>($A38*D$15)/1024</f>
+        <v>83.49609375</v>
+      </c>
+      <c r="D38" s="41">
+        <f>A38*E15</f>
+        <v>480</v>
+      </c>
+      <c r="E38" s="23">
+        <f>$A38*G$15</f>
+        <v>7.2299999999999995</v>
+      </c>
+      <c r="F38" s="39">
+        <f>($A38*H$15)/1024</f>
+        <v>83.49609375</v>
+      </c>
+      <c r="G38" s="44">
+        <f>A38*I15</f>
+        <v>480</v>
+      </c>
+      <c r="H38" s="23">
+        <f>$A38*K$15</f>
+        <v>34.44</v>
+      </c>
+      <c r="I38" s="39">
+        <f>($A38*L$15)/1024</f>
+        <v>801.26953125</v>
+      </c>
+      <c r="J38" s="44">
+        <f>A38*M15</f>
+        <v>2250</v>
+      </c>
+      <c r="K38" s="23">
+        <f>$A38*O$15</f>
+        <v>60</v>
+      </c>
+      <c r="L38" s="39">
+        <f t="shared" si="5"/>
+        <v>801.26953125</v>
+      </c>
+      <c r="M38" s="44">
+        <f>A38*Q15</f>
+        <v>2250</v>
+      </c>
+      <c r="N38" s="23">
+        <f>$A38*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="34">
+        <f>$A38*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="23">
+        <f>$A38*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="34">
+        <f>$A38*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="25"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="26">
-        <f t="shared" si="6"/>
-        <v>218800</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="B28" s="25">
-        <f t="shared" ref="B28:C28" si="14">$A28*C$15</f>
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="C28" s="26">
-        <f t="shared" si="14"/>
-        <v>28500</v>
-      </c>
-      <c r="D28" s="25">
+      <c r="B39" s="23">
+        <f t="shared" ref="B39" si="16">$A39*C$15</f>
+        <v>12.656000000000001</v>
+      </c>
+      <c r="C39" s="39">
+        <f>($A39*D$15)/1024</f>
+        <v>89.0625</v>
+      </c>
+      <c r="D39" s="41">
+        <f>A39*E15</f>
+        <v>512</v>
+      </c>
+      <c r="E39" s="23">
+        <f>$A39*G$15</f>
+        <v>7.7119999999999997</v>
+      </c>
+      <c r="F39" s="39">
+        <f>($A39*H$15)/1024</f>
+        <v>89.0625</v>
+      </c>
+      <c r="G39" s="44">
+        <f>A39*I15</f>
+        <v>512</v>
+      </c>
+      <c r="H39" s="23">
+        <f>$A39*K$15</f>
+        <v>36.735999999999997</v>
+      </c>
+      <c r="I39" s="39">
+        <f>($A39*L$15)/1024</f>
+        <v>854.6875</v>
+      </c>
+      <c r="J39" s="44">
+        <f>A39*M15</f>
+        <v>2400</v>
+      </c>
+      <c r="K39" s="23">
+        <f>$A39*O$15</f>
+        <v>64</v>
+      </c>
+      <c r="L39" s="39">
+        <f t="shared" si="5"/>
+        <v>854.6875</v>
+      </c>
+      <c r="M39" s="44">
+        <f>A39*Q15</f>
+        <v>2400</v>
+      </c>
+      <c r="N39" s="23">
+        <f>$A39*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="34">
+        <f>$A39*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="23">
+        <f>$A39*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="34">
+        <f>$A39*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="25"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40">
         <f t="shared" si="1"/>
-        <v>2.41</v>
-      </c>
-      <c r="E28" s="26">
-        <f t="shared" si="2"/>
-        <v>28500</v>
-      </c>
-      <c r="F28" s="25">
-        <f t="shared" si="3"/>
-        <v>11.479999999999999</v>
-      </c>
-      <c r="G28" s="26">
-        <f t="shared" si="4"/>
-        <v>273500</v>
-      </c>
-      <c r="H28" s="25">
+        <v>17</v>
+      </c>
+      <c r="B40" s="23">
+        <f t="shared" ref="B40" si="17">$A40*C$15</f>
+        <v>13.447000000000001</v>
+      </c>
+      <c r="C40" s="39">
+        <f>($A40*D$15)/1024</f>
+        <v>94.62890625</v>
+      </c>
+      <c r="D40" s="41">
+        <f>A40*E15</f>
+        <v>544</v>
+      </c>
+      <c r="E40" s="23">
+        <f>$A40*G$15</f>
+        <v>8.1939999999999991</v>
+      </c>
+      <c r="F40" s="39">
+        <f>($A40*H$15)/1024</f>
+        <v>94.62890625</v>
+      </c>
+      <c r="G40" s="44">
+        <f>A40*I15</f>
+        <v>544</v>
+      </c>
+      <c r="H40" s="23">
+        <f>$A40*K$15</f>
+        <v>39.031999999999996</v>
+      </c>
+      <c r="I40" s="39">
+        <f>($A40*L$15)/1024</f>
+        <v>908.10546875</v>
+      </c>
+      <c r="J40" s="44">
+        <f>A40*M15</f>
+        <v>2550</v>
+      </c>
+      <c r="K40" s="23">
+        <f>$A40*O$15</f>
+        <v>68</v>
+      </c>
+      <c r="L40" s="39">
         <f t="shared" si="5"/>
+        <v>908.10546875</v>
+      </c>
+      <c r="M40" s="44">
+        <f>A40*Q15</f>
+        <v>2550</v>
+      </c>
+      <c r="N40" s="23">
+        <f>$A40*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="34">
+        <f>$A40*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="23">
+        <f>$A40*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="34">
+        <f>$A40*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B41" s="23">
+        <f t="shared" ref="B41" si="18">$A41*C$15</f>
+        <v>14.238000000000001</v>
+      </c>
+      <c r="C41" s="39">
+        <f>($A41*D$15)/1024</f>
+        <v>100.1953125</v>
+      </c>
+      <c r="D41" s="41">
+        <f>A41*E15</f>
+        <v>576</v>
+      </c>
+      <c r="E41" s="23">
+        <f>$A41*G$15</f>
+        <v>8.6760000000000002</v>
+      </c>
+      <c r="F41" s="39">
+        <f>($A41*H$15)/1024</f>
+        <v>100.1953125</v>
+      </c>
+      <c r="G41" s="44">
+        <f>A41*I15</f>
+        <v>576</v>
+      </c>
+      <c r="H41" s="23">
+        <f>$A41*K$15</f>
+        <v>41.327999999999996</v>
+      </c>
+      <c r="I41" s="39">
+        <f>($A41*L$15)/1024</f>
+        <v>961.5234375</v>
+      </c>
+      <c r="J41" s="44">
+        <f>A41*M15</f>
+        <v>2700</v>
+      </c>
+      <c r="K41" s="23">
+        <f>$A41*O$15</f>
+        <v>72</v>
+      </c>
+      <c r="L41" s="39">
+        <f t="shared" si="5"/>
+        <v>961.5234375</v>
+      </c>
+      <c r="M41" s="44">
+        <f>A41*Q15</f>
+        <v>2700</v>
+      </c>
+      <c r="N41" s="23">
+        <f>$A41*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="34">
+        <f>$A41*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="23">
+        <f>$A41*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="34">
+        <f>$A41*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="25"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B42" s="23">
+        <f t="shared" ref="B42" si="19">$A42*C$15</f>
+        <v>15.029</v>
+      </c>
+      <c r="C42" s="39">
+        <f>($A42*D$15)/1024</f>
+        <v>105.76171875</v>
+      </c>
+      <c r="D42" s="41">
+        <f>A42*E15</f>
+        <v>608</v>
+      </c>
+      <c r="E42" s="23">
+        <f>$A42*G$15</f>
+        <v>9.1579999999999995</v>
+      </c>
+      <c r="F42" s="39">
+        <f>($A42*H$15)/1024</f>
+        <v>105.76171875</v>
+      </c>
+      <c r="G42" s="44">
+        <f>A42*I15</f>
+        <v>608</v>
+      </c>
+      <c r="H42" s="23">
+        <f>$A42*K$15</f>
+        <v>43.623999999999995</v>
+      </c>
+      <c r="I42" s="39">
+        <f>($A42*L$15)/1024</f>
+        <v>1014.94140625</v>
+      </c>
+      <c r="J42" s="44">
+        <f>A42*M15</f>
+        <v>2850</v>
+      </c>
+      <c r="K42" s="23">
+        <f>$A42*O$15</f>
+        <v>76</v>
+      </c>
+      <c r="L42" s="39">
+        <f t="shared" si="5"/>
+        <v>1014.94140625</v>
+      </c>
+      <c r="M42" s="44">
+        <f>A42*Q15</f>
+        <v>2850</v>
+      </c>
+      <c r="N42" s="23">
+        <f>$A42*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="34">
+        <f>$A42*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="23">
+        <f>$A42*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="34">
+        <f>$A42*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I28" s="26">
-        <f t="shared" si="6"/>
-        <v>273500</v>
-      </c>
-      <c r="J28" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="B29" s="25">
-        <f t="shared" ref="B29:C29" si="15">$A29*C$15</f>
-        <v>4.7460000000000004</v>
-      </c>
-      <c r="C29" s="26">
-        <f t="shared" si="15"/>
-        <v>34200</v>
-      </c>
-      <c r="D29" s="25">
-        <f t="shared" si="1"/>
-        <v>2.8919999999999999</v>
-      </c>
-      <c r="E29" s="26">
-        <f t="shared" si="2"/>
-        <v>34200</v>
-      </c>
-      <c r="F29" s="25">
-        <f t="shared" si="3"/>
-        <v>13.776</v>
-      </c>
-      <c r="G29" s="26">
-        <f t="shared" si="4"/>
-        <v>328200</v>
-      </c>
-      <c r="H29" s="25">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="I29" s="26">
-        <f t="shared" si="6"/>
-        <v>328200</v>
-      </c>
-      <c r="J29" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="B30" s="25">
-        <f t="shared" ref="B30:C30" si="16">$A30*C$15</f>
-        <v>5.5369999999999999</v>
-      </c>
-      <c r="C30" s="26">
-        <f t="shared" si="16"/>
-        <v>39900</v>
-      </c>
-      <c r="D30" s="25">
-        <f t="shared" si="1"/>
-        <v>3.3739999999999997</v>
-      </c>
-      <c r="E30" s="26">
-        <f t="shared" si="2"/>
-        <v>39900</v>
-      </c>
-      <c r="F30" s="25">
-        <f t="shared" si="3"/>
-        <v>16.071999999999999</v>
-      </c>
-      <c r="G30" s="26">
-        <f t="shared" si="4"/>
-        <v>382900</v>
-      </c>
-      <c r="H30" s="25">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="I30" s="26">
-        <f>$A30*P$15</f>
-        <v>382900</v>
-      </c>
-      <c r="J30" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="B31" s="25">
-        <f t="shared" ref="B31:C31" si="17">$A31*C$15</f>
-        <v>6.3280000000000003</v>
-      </c>
-      <c r="C31" s="26">
-        <f t="shared" si="17"/>
-        <v>45600</v>
-      </c>
-      <c r="D31" s="25">
-        <f t="shared" si="1"/>
-        <v>3.8559999999999999</v>
-      </c>
-      <c r="E31" s="26">
-        <f t="shared" si="2"/>
-        <v>45600</v>
-      </c>
-      <c r="F31" s="25">
-        <f t="shared" si="3"/>
-        <v>18.367999999999999</v>
-      </c>
-      <c r="G31" s="26">
-        <f t="shared" si="4"/>
-        <v>437600</v>
-      </c>
-      <c r="H31" s="25">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="I31" s="26">
-        <f t="shared" si="6"/>
-        <v>437600</v>
-      </c>
-      <c r="J31" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="B32" s="25">
-        <f t="shared" ref="B32:C32" si="18">$A32*C$15</f>
-        <v>7.1190000000000007</v>
-      </c>
-      <c r="C32" s="26">
-        <f t="shared" si="18"/>
-        <v>51300</v>
-      </c>
-      <c r="D32" s="25">
-        <f t="shared" si="1"/>
-        <v>4.3380000000000001</v>
-      </c>
-      <c r="E32" s="26">
-        <f t="shared" si="2"/>
-        <v>51300</v>
-      </c>
-      <c r="F32" s="25">
-        <f t="shared" si="3"/>
-        <v>20.663999999999998</v>
-      </c>
-      <c r="G32" s="26">
-        <f t="shared" si="4"/>
-        <v>492300</v>
-      </c>
-      <c r="H32" s="25">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="I32" s="26">
-        <f t="shared" si="6"/>
-        <v>492300</v>
-      </c>
-      <c r="J32" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="B33" s="25">
-        <f t="shared" ref="B33:C33" si="19">$A33*C$15</f>
-        <v>7.91</v>
-      </c>
-      <c r="C33" s="26">
-        <f t="shared" si="19"/>
-        <v>57000</v>
-      </c>
-      <c r="D33" s="25">
-        <f t="shared" si="1"/>
-        <v>4.82</v>
-      </c>
-      <c r="E33" s="26">
-        <f t="shared" si="2"/>
-        <v>57000</v>
-      </c>
-      <c r="F33" s="25">
-        <f t="shared" si="3"/>
-        <v>22.959999999999997</v>
-      </c>
-      <c r="G33" s="26">
-        <f t="shared" si="4"/>
-        <v>547000</v>
-      </c>
-      <c r="H33" s="25">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="I33" s="26">
-        <f t="shared" si="6"/>
-        <v>547000</v>
-      </c>
-      <c r="J33" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="B34" s="25">
-        <f t="shared" ref="B34:C34" si="20">$A34*C$15</f>
-        <v>8.7010000000000005</v>
-      </c>
-      <c r="C34" s="26">
-        <f t="shared" si="20"/>
-        <v>62700</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" si="1"/>
-        <v>5.3019999999999996</v>
-      </c>
-      <c r="E34" s="26">
-        <f t="shared" si="2"/>
-        <v>62700</v>
-      </c>
-      <c r="F34" s="25">
-        <f t="shared" si="3"/>
-        <v>25.255999999999997</v>
-      </c>
-      <c r="G34" s="26">
-        <f t="shared" si="4"/>
-        <v>601700</v>
-      </c>
-      <c r="H34" s="25">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="I34" s="26">
-        <f t="shared" si="6"/>
-        <v>601700</v>
-      </c>
-      <c r="J34" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="B35" s="25">
-        <f t="shared" ref="B35:C35" si="21">$A35*C$15</f>
-        <v>9.4920000000000009</v>
-      </c>
-      <c r="C35" s="26">
-        <f t="shared" si="21"/>
-        <v>68400</v>
-      </c>
-      <c r="D35" s="25">
-        <f t="shared" si="1"/>
-        <v>5.7839999999999998</v>
-      </c>
-      <c r="E35" s="26">
-        <f t="shared" si="2"/>
-        <v>68400</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" si="3"/>
-        <v>27.552</v>
-      </c>
-      <c r="G35" s="26">
-        <f t="shared" si="4"/>
-        <v>656400</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="I35" s="26">
-        <f t="shared" si="6"/>
-        <v>656400</v>
-      </c>
-      <c r="J35" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="B36" s="25">
-        <f t="shared" ref="B36:C36" si="22">$A36*C$15</f>
-        <v>10.283000000000001</v>
-      </c>
-      <c r="C36" s="26">
-        <f t="shared" si="22"/>
-        <v>74100</v>
-      </c>
-      <c r="D36" s="25">
-        <f t="shared" si="1"/>
-        <v>6.266</v>
-      </c>
-      <c r="E36" s="26">
-        <f t="shared" si="2"/>
-        <v>74100</v>
-      </c>
-      <c r="F36" s="25">
-        <f t="shared" si="3"/>
-        <v>29.847999999999999</v>
-      </c>
-      <c r="G36" s="26">
-        <f t="shared" si="4"/>
-        <v>711100</v>
-      </c>
-      <c r="H36" s="25">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="I36" s="26">
-        <f t="shared" si="6"/>
-        <v>711100</v>
-      </c>
-      <c r="J36" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="B37" s="25">
-        <f t="shared" ref="B37:C37" si="23">$A37*C$15</f>
-        <v>11.074</v>
-      </c>
-      <c r="C37" s="26">
-        <f t="shared" si="23"/>
-        <v>79800</v>
-      </c>
-      <c r="D37" s="25">
-        <f t="shared" si="1"/>
-        <v>6.7479999999999993</v>
-      </c>
-      <c r="E37" s="26">
-        <f t="shared" si="2"/>
-        <v>79800</v>
-      </c>
-      <c r="F37" s="25">
-        <f t="shared" si="3"/>
-        <v>32.143999999999998</v>
-      </c>
-      <c r="G37" s="26">
-        <f t="shared" si="4"/>
-        <v>765800</v>
-      </c>
-      <c r="H37" s="25">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="I37" s="26">
-        <f t="shared" si="6"/>
-        <v>765800</v>
-      </c>
-      <c r="J37" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="B38" s="25">
-        <f t="shared" ref="B38:C38" si="24">$A38*C$15</f>
-        <v>11.865</v>
-      </c>
-      <c r="C38" s="26">
-        <f t="shared" si="24"/>
-        <v>85500</v>
-      </c>
-      <c r="D38" s="25">
-        <f t="shared" si="1"/>
-        <v>7.2299999999999995</v>
-      </c>
-      <c r="E38" s="26">
-        <f t="shared" si="2"/>
-        <v>85500</v>
-      </c>
-      <c r="F38" s="25">
-        <f t="shared" si="3"/>
-        <v>34.44</v>
-      </c>
-      <c r="G38" s="26">
-        <f t="shared" si="4"/>
-        <v>820500</v>
-      </c>
-      <c r="H38" s="25">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="I38" s="26">
-        <f t="shared" si="6"/>
-        <v>820500</v>
-      </c>
-      <c r="J38" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="B39" s="25">
-        <f t="shared" ref="B39:C39" si="25">$A39*C$15</f>
-        <v>12.656000000000001</v>
-      </c>
-      <c r="C39" s="26">
-        <f t="shared" si="25"/>
-        <v>91200</v>
-      </c>
-      <c r="D39" s="25">
-        <f t="shared" si="1"/>
-        <v>7.7119999999999997</v>
-      </c>
-      <c r="E39" s="26">
-        <f t="shared" si="2"/>
-        <v>91200</v>
-      </c>
-      <c r="F39" s="25">
-        <f t="shared" si="3"/>
-        <v>36.735999999999997</v>
-      </c>
-      <c r="G39" s="26">
-        <f t="shared" si="4"/>
-        <v>875200</v>
-      </c>
-      <c r="H39" s="25">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="I39" s="26">
-        <f t="shared" si="6"/>
-        <v>875200</v>
-      </c>
-      <c r="J39" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="B40" s="25">
-        <f t="shared" ref="B40:C40" si="26">$A40*C$15</f>
-        <v>13.447000000000001</v>
-      </c>
-      <c r="C40" s="26">
-        <f t="shared" si="26"/>
-        <v>96900</v>
-      </c>
-      <c r="D40" s="25">
-        <f t="shared" si="1"/>
-        <v>8.1939999999999991</v>
-      </c>
-      <c r="E40" s="26">
-        <f t="shared" si="2"/>
-        <v>96900</v>
-      </c>
-      <c r="F40" s="25">
-        <f t="shared" si="3"/>
-        <v>39.031999999999996</v>
-      </c>
-      <c r="G40" s="26">
-        <f t="shared" si="4"/>
-        <v>929900</v>
-      </c>
-      <c r="H40" s="25">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="I40" s="26">
-        <f t="shared" si="6"/>
-        <v>929900</v>
-      </c>
-      <c r="J40" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="B41" s="25">
-        <f t="shared" ref="B41:C41" si="27">$A41*C$15</f>
-        <v>14.238000000000001</v>
-      </c>
-      <c r="C41" s="26">
-        <f t="shared" si="27"/>
-        <v>102600</v>
-      </c>
-      <c r="D41" s="25">
-        <f t="shared" si="1"/>
-        <v>8.6760000000000002</v>
-      </c>
-      <c r="E41" s="26">
-        <f t="shared" si="2"/>
-        <v>102600</v>
-      </c>
-      <c r="F41" s="25">
-        <f t="shared" si="3"/>
-        <v>41.327999999999996</v>
-      </c>
-      <c r="G41" s="26">
-        <f t="shared" si="4"/>
-        <v>984600</v>
-      </c>
-      <c r="H41" s="25">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="I41" s="26">
-        <f t="shared" si="6"/>
-        <v>984600</v>
-      </c>
-      <c r="J41" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="B42" s="25">
-        <f t="shared" ref="B42:C42" si="28">$A42*C$15</f>
-        <v>15.029</v>
-      </c>
-      <c r="C42" s="26">
-        <f t="shared" si="28"/>
-        <v>108300</v>
-      </c>
-      <c r="D42" s="25">
-        <f t="shared" si="1"/>
-        <v>9.1579999999999995</v>
-      </c>
-      <c r="E42" s="26">
-        <f t="shared" si="2"/>
-        <v>108300</v>
-      </c>
-      <c r="F42" s="25">
-        <f t="shared" si="3"/>
-        <v>43.623999999999995</v>
-      </c>
-      <c r="G42" s="26">
-        <f t="shared" si="4"/>
-        <v>1039300</v>
-      </c>
-      <c r="H42" s="25">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="I42" s="26">
-        <f t="shared" si="6"/>
-        <v>1039300</v>
-      </c>
-      <c r="J42" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="B43" s="27">
+      <c r="B43" s="24">
         <f>$A43*C$15</f>
         <v>15.82</v>
       </c>
-      <c r="C43" s="28">
-        <f t="shared" ref="C43" si="29">$A43*D$15</f>
-        <v>114000</v>
-      </c>
-      <c r="D43" s="27">
-        <f t="shared" si="1"/>
+      <c r="C43" s="47">
+        <f>($A43*D$15)/1024</f>
+        <v>111.328125</v>
+      </c>
+      <c r="D43" s="42">
+        <f>A43*E15</f>
+        <v>640</v>
+      </c>
+      <c r="E43" s="24">
+        <f>$A43*G$15</f>
         <v>9.64</v>
       </c>
-      <c r="E43" s="28">
-        <f t="shared" si="2"/>
-        <v>114000</v>
-      </c>
-      <c r="F43" s="27">
-        <f t="shared" si="3"/>
+      <c r="F43" s="47">
+        <f>($A43*H$15)/1024</f>
+        <v>111.328125</v>
+      </c>
+      <c r="G43" s="45">
+        <f>A43*I15</f>
+        <v>640</v>
+      </c>
+      <c r="H43" s="24">
+        <f>$A43*K$15</f>
         <v>45.919999999999995</v>
       </c>
-      <c r="G43" s="28">
-        <f t="shared" si="4"/>
-        <v>1094000</v>
-      </c>
-      <c r="H43" s="27">
+      <c r="I43" s="47">
+        <f>($A43*L$15)/1024</f>
+        <v>1068.359375</v>
+      </c>
+      <c r="J43" s="45">
+        <f>A43*M15</f>
+        <v>3000</v>
+      </c>
+      <c r="K43" s="24">
+        <f>$A43*O$15</f>
+        <v>80</v>
+      </c>
+      <c r="L43" s="47">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="I43" s="28">
-        <f t="shared" si="6"/>
-        <v>1094000</v>
-      </c>
-      <c r="J43" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <v>1068.359375</v>
+      </c>
+      <c r="M43" s="45">
+        <f>A43*Q15</f>
+        <v>3000</v>
+      </c>
+      <c r="N43" s="24">
+        <f>$A43*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="35">
+        <f>$A43*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="24">
+        <f>$A43*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="35">
+        <f>$A43*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9404EA0-BEB2-2D4D-AB49-307F1D632573}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="50">
+        <f>Sheet1!C7</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="50">
+        <f>(Sheet1!D7)/1024</f>
+        <v>1.66015625</v>
+      </c>
+      <c r="D3" s="50">
+        <f>Sheet1!E7</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="50">
+        <f>Sheet1!O7</f>
+        <v>3.1</v>
+      </c>
+      <c r="F3" s="50">
+        <f>(Sheet1!P7)/1024</f>
+        <v>19.04296875</v>
+      </c>
+      <c r="G3" s="50">
+        <f>Sheet1!Q7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="50">
+        <f>Sheet1!C15</f>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C4" s="50">
+        <f>(Sheet1!D15)/1024</f>
+        <v>5.56640625</v>
+      </c>
+      <c r="D4" s="50">
+        <f>Sheet1!E15</f>
+        <v>32</v>
+      </c>
+      <c r="E4" s="50">
+        <f>Sheet1!O15</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="50">
+        <f>(Sheet1!P15)/1024</f>
+        <v>53.41796875</v>
+      </c>
+      <c r="G4" s="50">
+        <f>Sheet1!Q15</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="50">
+        <f>Sheet1!C17</f>
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="C5" s="50">
+        <f>(Sheet1!D17)/1024</f>
+        <v>7.2265625</v>
+      </c>
+      <c r="D5" s="50">
+        <f>Sheet1!E17</f>
+        <v>32</v>
+      </c>
+      <c r="E5" s="50">
+        <f>Sheet1!O17</f>
+        <v>7.1</v>
+      </c>
+      <c r="F5" s="50">
+        <f>(Sheet1!P17)/1024</f>
+        <v>72.4609375</v>
+      </c>
+      <c r="G5" s="50">
+        <f>Sheet1!Q17</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B990A9E6-81B6-1248-8047-08D204A815BC}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49">
+        <f>Sheet1!B24</f>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C3" s="50">
+        <f>Sheet1!C24</f>
+        <v>5.56640625</v>
+      </c>
+      <c r="D3" s="50">
+        <f>Sheet1!D24</f>
+        <v>32</v>
+      </c>
+      <c r="E3" s="49">
+        <f>Sheet1!K24</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="50">
+        <f>Sheet1!L24</f>
+        <v>53.41796875</v>
+      </c>
+      <c r="G3" s="50">
+        <f>Sheet1!M24</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49">
+        <f>Sheet1!B25</f>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="C4" s="50">
+        <f>Sheet1!C25</f>
+        <v>11.1328125</v>
+      </c>
+      <c r="D4" s="50">
+        <f>Sheet1!D25</f>
+        <v>64</v>
+      </c>
+      <c r="E4" s="49">
+        <f>Sheet1!K25</f>
+        <v>8</v>
+      </c>
+      <c r="F4" s="50">
+        <f>Sheet1!L25</f>
+        <v>106.8359375</v>
+      </c>
+      <c r="G4" s="50">
+        <f>Sheet1!M25</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="48">
+        <v>3</v>
+      </c>
+      <c r="B5" s="49">
+        <f>Sheet1!B26</f>
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="C5" s="50">
+        <f>Sheet1!C26</f>
+        <v>16.69921875</v>
+      </c>
+      <c r="D5" s="50">
+        <f>Sheet1!D26</f>
+        <v>96</v>
+      </c>
+      <c r="E5" s="49">
+        <f>Sheet1!K26</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="50">
+        <f>Sheet1!L26</f>
+        <v>160.25390625</v>
+      </c>
+      <c r="G5" s="50">
+        <f>Sheet1!M26</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="48">
+        <v>4</v>
+      </c>
+      <c r="B6" s="49">
+        <f>Sheet1!B27</f>
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="C6" s="50">
+        <f>Sheet1!C27</f>
+        <v>22.265625</v>
+      </c>
+      <c r="D6" s="50">
+        <f>Sheet1!D27</f>
+        <v>128</v>
+      </c>
+      <c r="E6" s="49">
+        <f>Sheet1!K27</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="50">
+        <f>Sheet1!L27</f>
+        <v>213.671875</v>
+      </c>
+      <c r="G6" s="50">
+        <f>Sheet1!M27</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="48">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49">
+        <f>Sheet1!B28</f>
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="C7" s="50">
+        <f>Sheet1!C28</f>
+        <v>27.83203125</v>
+      </c>
+      <c r="D7" s="50">
+        <f>Sheet1!D28</f>
+        <v>160</v>
+      </c>
+      <c r="E7" s="49">
+        <f>Sheet1!K28</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="50">
+        <f>Sheet1!L28</f>
+        <v>267.08984375</v>
+      </c>
+      <c r="G7" s="50">
+        <f>Sheet1!M28</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="48">
+        <v>6</v>
+      </c>
+      <c r="B8" s="49">
+        <f>Sheet1!B29</f>
+        <v>4.7460000000000004</v>
+      </c>
+      <c r="C8" s="50">
+        <f>Sheet1!C29</f>
+        <v>33.3984375</v>
+      </c>
+      <c r="D8" s="50">
+        <f>Sheet1!D29</f>
+        <v>192</v>
+      </c>
+      <c r="E8" s="49">
+        <f>Sheet1!K29</f>
+        <v>24</v>
+      </c>
+      <c r="F8" s="50">
+        <f>Sheet1!L29</f>
+        <v>320.5078125</v>
+      </c>
+      <c r="G8" s="50">
+        <f>Sheet1!M29</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="48">
+        <v>7</v>
+      </c>
+      <c r="B9" s="49">
+        <f>Sheet1!B30</f>
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="C9" s="50">
+        <f>Sheet1!C30</f>
+        <v>38.96484375</v>
+      </c>
+      <c r="D9" s="50">
+        <f>Sheet1!D30</f>
+        <v>224</v>
+      </c>
+      <c r="E9" s="49">
+        <f>Sheet1!K30</f>
+        <v>28</v>
+      </c>
+      <c r="F9" s="50">
+        <f>Sheet1!L30</f>
+        <v>373.92578125</v>
+      </c>
+      <c r="G9" s="50">
+        <f>Sheet1!M30</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="48">
+        <v>8</v>
+      </c>
+      <c r="B10" s="49">
+        <f>Sheet1!B31</f>
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="C10" s="50">
+        <f>Sheet1!C31</f>
+        <v>44.53125</v>
+      </c>
+      <c r="D10" s="50">
+        <f>Sheet1!D31</f>
+        <v>256</v>
+      </c>
+      <c r="E10" s="49">
+        <f>Sheet1!K31</f>
+        <v>32</v>
+      </c>
+      <c r="F10" s="50">
+        <f>Sheet1!L31</f>
+        <v>427.34375</v>
+      </c>
+      <c r="G10" s="50">
+        <f>Sheet1!M31</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="48">
+        <v>9</v>
+      </c>
+      <c r="B11" s="49">
+        <f>Sheet1!B32</f>
+        <v>7.1190000000000007</v>
+      </c>
+      <c r="C11" s="50">
+        <f>Sheet1!C32</f>
+        <v>50.09765625</v>
+      </c>
+      <c r="D11" s="50">
+        <f>Sheet1!D32</f>
+        <v>288</v>
+      </c>
+      <c r="E11" s="49">
+        <f>Sheet1!K32</f>
+        <v>36</v>
+      </c>
+      <c r="F11" s="50">
+        <f>Sheet1!L32</f>
+        <v>480.76171875</v>
+      </c>
+      <c r="G11" s="50">
+        <f>Sheet1!M32</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="48">
+        <v>10</v>
+      </c>
+      <c r="B12" s="49">
+        <f>Sheet1!B33</f>
+        <v>7.91</v>
+      </c>
+      <c r="C12" s="50">
+        <f>Sheet1!C33</f>
+        <v>55.6640625</v>
+      </c>
+      <c r="D12" s="50">
+        <f>Sheet1!D33</f>
+        <v>320</v>
+      </c>
+      <c r="E12" s="49">
+        <f>Sheet1!K33</f>
+        <v>40</v>
+      </c>
+      <c r="F12" s="50">
+        <f>Sheet1!L33</f>
+        <v>534.1796875</v>
+      </c>
+      <c r="G12" s="50">
+        <f>Sheet1!M33</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="48">
+        <v>11</v>
+      </c>
+      <c r="B13" s="49">
+        <f>Sheet1!B34</f>
+        <v>8.7010000000000005</v>
+      </c>
+      <c r="C13" s="50">
+        <f>Sheet1!C34</f>
+        <v>61.23046875</v>
+      </c>
+      <c r="D13" s="50">
+        <f>Sheet1!D34</f>
+        <v>352</v>
+      </c>
+      <c r="E13" s="49">
+        <f>Sheet1!K34</f>
+        <v>44</v>
+      </c>
+      <c r="F13" s="50">
+        <f>Sheet1!L34</f>
+        <v>587.59765625</v>
+      </c>
+      <c r="G13" s="50">
+        <f>Sheet1!M34</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="48">
+        <v>12</v>
+      </c>
+      <c r="B14" s="49">
+        <f>Sheet1!B35</f>
+        <v>9.4920000000000009</v>
+      </c>
+      <c r="C14" s="50">
+        <f>Sheet1!C35</f>
+        <v>66.796875</v>
+      </c>
+      <c r="D14" s="50">
+        <f>Sheet1!D35</f>
+        <v>384</v>
+      </c>
+      <c r="E14" s="49">
+        <f>Sheet1!K35</f>
+        <v>48</v>
+      </c>
+      <c r="F14" s="50">
+        <f>Sheet1!L35</f>
+        <v>641.015625</v>
+      </c>
+      <c r="G14" s="50">
+        <f>Sheet1!M35</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="48">
+        <v>13</v>
+      </c>
+      <c r="B15" s="49">
+        <f>Sheet1!B36</f>
+        <v>10.283000000000001</v>
+      </c>
+      <c r="C15" s="50">
+        <f>Sheet1!C36</f>
+        <v>72.36328125</v>
+      </c>
+      <c r="D15" s="50">
+        <f>Sheet1!D36</f>
+        <v>416</v>
+      </c>
+      <c r="E15" s="49">
+        <f>Sheet1!K36</f>
+        <v>52</v>
+      </c>
+      <c r="F15" s="50">
+        <f>Sheet1!L36</f>
+        <v>694.43359375</v>
+      </c>
+      <c r="G15" s="50">
+        <f>Sheet1!M36</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="48">
+        <v>14</v>
+      </c>
+      <c r="B16" s="49">
+        <f>Sheet1!B37</f>
+        <v>11.074</v>
+      </c>
+      <c r="C16" s="50">
+        <f>Sheet1!C37</f>
+        <v>77.9296875</v>
+      </c>
+      <c r="D16" s="50">
+        <f>Sheet1!D37</f>
+        <v>448</v>
+      </c>
+      <c r="E16" s="49">
+        <f>Sheet1!K37</f>
+        <v>56</v>
+      </c>
+      <c r="F16" s="50">
+        <f>Sheet1!L37</f>
+        <v>747.8515625</v>
+      </c>
+      <c r="G16" s="50">
+        <f>Sheet1!M37</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="48">
+        <v>15</v>
+      </c>
+      <c r="B17" s="49">
+        <f>Sheet1!B38</f>
+        <v>11.865</v>
+      </c>
+      <c r="C17" s="50">
+        <f>Sheet1!C38</f>
+        <v>83.49609375</v>
+      </c>
+      <c r="D17" s="50">
+        <f>Sheet1!D38</f>
+        <v>480</v>
+      </c>
+      <c r="E17" s="49">
+        <f>Sheet1!K38</f>
+        <v>60</v>
+      </c>
+      <c r="F17" s="50">
+        <f>Sheet1!L38</f>
+        <v>801.26953125</v>
+      </c>
+      <c r="G17" s="50">
+        <f>Sheet1!M38</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="48">
+        <v>16</v>
+      </c>
+      <c r="B18" s="49">
+        <f>Sheet1!B39</f>
+        <v>12.656000000000001</v>
+      </c>
+      <c r="C18" s="50">
+        <f>Sheet1!C39</f>
+        <v>89.0625</v>
+      </c>
+      <c r="D18" s="50">
+        <f>Sheet1!D39</f>
+        <v>512</v>
+      </c>
+      <c r="E18" s="49">
+        <f>Sheet1!K39</f>
+        <v>64</v>
+      </c>
+      <c r="F18" s="50">
+        <f>Sheet1!L39</f>
+        <v>854.6875</v>
+      </c>
+      <c r="G18" s="50">
+        <f>Sheet1!M39</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="48">
+        <v>17</v>
+      </c>
+      <c r="B19" s="49">
+        <f>Sheet1!B40</f>
+        <v>13.447000000000001</v>
+      </c>
+      <c r="C19" s="50">
+        <f>Sheet1!C40</f>
+        <v>94.62890625</v>
+      </c>
+      <c r="D19" s="50">
+        <f>Sheet1!D40</f>
+        <v>544</v>
+      </c>
+      <c r="E19" s="49">
+        <f>Sheet1!K40</f>
+        <v>68</v>
+      </c>
+      <c r="F19" s="50">
+        <f>Sheet1!L40</f>
+        <v>908.10546875</v>
+      </c>
+      <c r="G19" s="50">
+        <f>Sheet1!M40</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="48">
+        <v>18</v>
+      </c>
+      <c r="B20" s="49">
+        <f>Sheet1!B41</f>
+        <v>14.238000000000001</v>
+      </c>
+      <c r="C20" s="50">
+        <f>Sheet1!C41</f>
+        <v>100.1953125</v>
+      </c>
+      <c r="D20" s="50">
+        <f>Sheet1!D41</f>
+        <v>576</v>
+      </c>
+      <c r="E20" s="49">
+        <f>Sheet1!K41</f>
+        <v>72</v>
+      </c>
+      <c r="F20" s="50">
+        <f>Sheet1!L41</f>
+        <v>961.5234375</v>
+      </c>
+      <c r="G20" s="50">
+        <f>Sheet1!M41</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="48">
+        <v>19</v>
+      </c>
+      <c r="B21" s="49">
+        <f>Sheet1!B42</f>
+        <v>15.029</v>
+      </c>
+      <c r="C21" s="50">
+        <f>Sheet1!C42</f>
+        <v>105.76171875</v>
+      </c>
+      <c r="D21" s="50">
+        <f>Sheet1!D42</f>
+        <v>608</v>
+      </c>
+      <c r="E21" s="49">
+        <f>Sheet1!K42</f>
+        <v>76</v>
+      </c>
+      <c r="F21" s="50">
+        <f>Sheet1!L42</f>
+        <v>1014.94140625</v>
+      </c>
+      <c r="G21" s="50">
+        <f>Sheet1!M42</f>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="48">
+        <v>20</v>
+      </c>
+      <c r="B22" s="49">
+        <f>Sheet1!B43</f>
+        <v>15.82</v>
+      </c>
+      <c r="C22" s="50">
+        <f>Sheet1!C43</f>
+        <v>111.328125</v>
+      </c>
+      <c r="D22" s="50">
+        <f>Sheet1!D43</f>
+        <v>640</v>
+      </c>
+      <c r="E22" s="49">
+        <f>Sheet1!K43</f>
+        <v>80</v>
+      </c>
+      <c r="F22" s="50">
+        <f>Sheet1!L43</f>
+        <v>1068.359375</v>
+      </c>
+      <c r="G22" s="50">
+        <f>Sheet1!M43</f>
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FE546-8080-2A45-A22C-2BF119538D85}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{BC1E629E-D46A-2246-8F32-9A8BBF84D467}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/sourceFiles/fixedConfigSizes.xlsx
+++ b/doc/sourceFiles/fixedConfigSizes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/workspace-sts-3.9.5.RELEASE-WV2/weathervane/doc/sourceFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C49C8-5572-D142-AE72-5B8C552B7C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC5D0EC-02A6-B742-B65A-CCEB4C8CECA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="1120" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{AF3EA68B-9CB6-DF4D-B5EE-93D818FB3527}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="33600" windowHeight="20540" xr2:uid="{AF3EA68B-9CB6-DF4D-B5EE-93D818FB3527}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Table1" sheetId="2" r:id="rId2"/>
     <sheet name="Table2" sheetId="3" r:id="rId3"/>
-    <sheet name="readme" sheetId="4" r:id="rId4"/>
+    <sheet name="Table3" sheetId="5" r:id="rId4"/>
+    <sheet name="readme" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>Weathervane Version:</t>
   </si>
@@ -159,9 +160,6 @@
     <t>Paste this into usersGuide.md</t>
   </si>
   <si>
-    <t>Copy all of the yellow cells from the spreadsheet you want to convert (Table1, Table2, etc.)</t>
-  </si>
-  <si>
     <t>Memory&lt;BR&gt;(GiB)</t>
   </si>
   <si>
@@ -172,6 +170,12 @@
   </si>
   <si>
     <t>Also see this page: https://tableconvert.com/Excel-Converter/excel-to-markdown-table.html</t>
+  </si>
+  <si>
+    <t>Driver Required Free CPU/Memory</t>
+  </si>
+  <si>
+    <t>Copy all of the yellow cells from the spreadsheet you want to convert (Table1, Table2, Table3 etc.)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +529,29 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -546,28 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1021,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336BD292-11A6-9249-B2F1-03CB5FB5427D}">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1037,7 @@
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
@@ -1064,40 +1068,40 @@
     </row>
     <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="29" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="30" t="s">
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="29" t="s">
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="49"/>
     </row>
     <row r="4" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1855,11 +1859,11 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="43" t="s">
         <v>3</v>
       </c>
@@ -1895,58 +1899,58 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="N23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="38" t="s">
+      <c r="O23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Q23" s="36" t="s">
+      <c r="Q23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R23" s="38" t="s">
+      <c r="R23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="40" t="s">
+      <c r="S23" s="32" t="s">
         <v>29</v>
       </c>
       <c r="U23" s="22"/>
@@ -1965,65 +1969,65 @@
         <f>$A24*C$15</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C24" s="39">
-        <f>($A24*D$15)/1024</f>
+      <c r="C24" s="31">
+        <f t="shared" ref="C24:C43" si="0">($A24*D$15)/1024</f>
         <v>5.56640625</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="33">
         <f>A24*E15</f>
         <v>32</v>
       </c>
       <c r="E24" s="23">
-        <f>$A24*G$15</f>
+        <f t="shared" ref="E24:E43" si="1">$A24*G$15</f>
         <v>0.48199999999999998</v>
       </c>
-      <c r="F24" s="39">
-        <f>($A24*H$15)/1024</f>
+      <c r="F24" s="31">
+        <f t="shared" ref="F24:F43" si="2">($A24*H$15)/1024</f>
         <v>5.56640625</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="35">
         <f>A24*I15</f>
         <v>32</v>
       </c>
       <c r="H24" s="23">
-        <f>$A24*K$15</f>
+        <f t="shared" ref="H24:H43" si="3">$A24*K$15</f>
         <v>2.2959999999999998</v>
       </c>
-      <c r="I24" s="39">
-        <f>($A24*L$15)/1024</f>
+      <c r="I24" s="31">
+        <f t="shared" ref="I24:I43" si="4">($A24*L$15)/1024</f>
         <v>53.41796875</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="35">
         <f>A24*M15</f>
         <v>150</v>
       </c>
       <c r="K24" s="23">
-        <f>$A24*O$15</f>
+        <f t="shared" ref="K24:K43" si="5">$A24*O$15</f>
         <v>4</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="31">
         <f>($A24*P$15)/1024</f>
         <v>53.41796875</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="35">
         <f>A24*Q15</f>
         <v>150</v>
       </c>
       <c r="N24" s="23">
-        <f>$A24*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="34">
-        <f>$A24*T$15</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="34"/>
+        <f t="shared" ref="N24:N43" si="6">$A24*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="27">
+        <f t="shared" ref="O24:O43" si="7">$A24*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="27"/>
       <c r="Q24" s="23">
-        <f>$A24*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="34">
-        <f>$A24*W$15</f>
+        <f t="shared" ref="Q24:Q43" si="8">$A24*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="27">
+        <f t="shared" ref="R24:R43" si="9">$A24*W$15</f>
         <v>0</v>
       </c>
       <c r="S24" s="25"/>
@@ -2034,1382 +2038,2923 @@
         <v>2</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" ref="B25" si="0">$A25*C$15</f>
+        <f t="shared" ref="B25" si="10">$A25*C$15</f>
         <v>1.5820000000000001</v>
       </c>
-      <c r="C25" s="39">
-        <f>($A25*D$15)/1024</f>
+      <c r="C25" s="31">
+        <f t="shared" si="0"/>
         <v>11.1328125</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="33">
         <f>A25*E15</f>
         <v>64</v>
       </c>
       <c r="E25" s="23">
-        <f>$A25*G$15</f>
+        <f t="shared" si="1"/>
         <v>0.96399999999999997</v>
       </c>
-      <c r="F25" s="39">
-        <f>($A25*H$15)/1024</f>
+      <c r="F25" s="31">
+        <f t="shared" si="2"/>
         <v>11.1328125</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="35">
         <f>A25*I15</f>
         <v>64</v>
       </c>
       <c r="H25" s="23">
-        <f>$A25*K$15</f>
+        <f t="shared" si="3"/>
         <v>4.5919999999999996</v>
       </c>
-      <c r="I25" s="39">
-        <f>($A25*L$15)/1024</f>
+      <c r="I25" s="31">
+        <f t="shared" si="4"/>
         <v>106.8359375</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="35">
         <f>A25*M15</f>
         <v>300</v>
       </c>
       <c r="K25" s="23">
-        <f>$A25*O$15</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="31">
         <f>($A25*P$15)/1024</f>
         <v>106.8359375</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="35">
         <f>A25*Q15</f>
         <v>300</v>
       </c>
       <c r="N25" s="23">
-        <f>$A25*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="34">
-        <f>$A25*T$15</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="34"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="27"/>
       <c r="Q25" s="23">
-        <f>$A25*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="34">
-        <f>$A25*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S25" s="25"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" ref="A26:A43" si="1">A25+1</f>
+        <f t="shared" ref="A26:A43" si="11">A25+1</f>
         <v>3</v>
       </c>
       <c r="B26" s="23">
-        <f t="shared" ref="B26" si="2">$A26*C$15</f>
+        <f t="shared" ref="B26" si="12">$A26*C$15</f>
         <v>2.3730000000000002</v>
       </c>
-      <c r="C26" s="39">
-        <f>($A26*D$15)/1024</f>
+      <c r="C26" s="31">
+        <f t="shared" si="0"/>
         <v>16.69921875</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="33">
         <f>A26*E15</f>
         <v>96</v>
       </c>
       <c r="E26" s="23">
-        <f>$A26*G$15</f>
+        <f t="shared" si="1"/>
         <v>1.446</v>
       </c>
-      <c r="F26" s="39">
-        <f>($A26*H$15)/1024</f>
+      <c r="F26" s="31">
+        <f t="shared" si="2"/>
         <v>16.69921875</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="35">
         <f>A26*I15</f>
         <v>96</v>
       </c>
       <c r="H26" s="23">
-        <f>$A26*K$15</f>
+        <f t="shared" si="3"/>
         <v>6.8879999999999999</v>
       </c>
-      <c r="I26" s="39">
-        <f>($A26*L$15)/1024</f>
+      <c r="I26" s="31">
+        <f t="shared" si="4"/>
         <v>160.25390625</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="35">
         <f>A26*M15</f>
         <v>450</v>
       </c>
       <c r="K26" s="23">
-        <f>$A26*O$15</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="31">
         <f>($A26*P$15)/1024</f>
         <v>160.25390625</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="35">
         <f>A26*Q15</f>
         <v>450</v>
       </c>
       <c r="N26" s="23">
-        <f>$A26*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="34">
-        <f>$A26*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P26" s="25"/>
       <c r="Q26" s="23">
-        <f>$A26*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="34">
-        <f>$A26*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B27" s="23">
-        <f t="shared" ref="B27" si="3">$A27*C$15</f>
+        <f t="shared" ref="B27" si="13">$A27*C$15</f>
         <v>3.1640000000000001</v>
       </c>
-      <c r="C27" s="39">
-        <f>($A27*D$15)/1024</f>
+      <c r="C27" s="31">
+        <f t="shared" si="0"/>
         <v>22.265625</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="33">
         <f>A27*E15</f>
         <v>128</v>
       </c>
       <c r="E27" s="23">
-        <f>$A27*G$15</f>
+        <f t="shared" si="1"/>
         <v>1.9279999999999999</v>
       </c>
-      <c r="F27" s="39">
-        <f>($A27*H$15)/1024</f>
+      <c r="F27" s="31">
+        <f t="shared" si="2"/>
         <v>22.265625</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="35">
         <f>A27*I15</f>
         <v>128</v>
       </c>
       <c r="H27" s="23">
-        <f>$A27*K$15</f>
+        <f t="shared" si="3"/>
         <v>9.1839999999999993</v>
       </c>
-      <c r="I27" s="39">
-        <f>($A27*L$15)/1024</f>
+      <c r="I27" s="31">
+        <f t="shared" si="4"/>
         <v>213.671875</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="35">
         <f>A27*M15</f>
         <v>600</v>
       </c>
       <c r="K27" s="23">
-        <f>$A27*O$15</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="31">
         <f>($A27*P$15)/1024</f>
         <v>213.671875</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="35">
         <f>A27*Q15</f>
         <v>600</v>
       </c>
       <c r="N27" s="23">
-        <f>$A27*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="34">
-        <f>$A27*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P27" s="25"/>
       <c r="Q27" s="23">
-        <f>$A27*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="34">
-        <f>$A27*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B28" s="23">
-        <f t="shared" ref="B28" si="4">$A28*C$15</f>
+        <f t="shared" ref="B28" si="14">$A28*C$15</f>
         <v>3.9550000000000001</v>
       </c>
-      <c r="C28" s="39">
-        <f>($A28*D$15)/1024</f>
+      <c r="C28" s="31">
+        <f t="shared" si="0"/>
         <v>27.83203125</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="33">
         <f>A28*E15</f>
         <v>160</v>
       </c>
       <c r="E28" s="23">
-        <f>$A28*G$15</f>
+        <f t="shared" si="1"/>
         <v>2.41</v>
       </c>
-      <c r="F28" s="39">
-        <f>($A28*H$15)/1024</f>
+      <c r="F28" s="31">
+        <f t="shared" si="2"/>
         <v>27.83203125</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="35">
         <f>A28*I15</f>
         <v>160</v>
       </c>
       <c r="H28" s="23">
-        <f>$A28*K$15</f>
+        <f t="shared" si="3"/>
         <v>11.479999999999999</v>
       </c>
-      <c r="I28" s="39">
-        <f>($A28*L$15)/1024</f>
+      <c r="I28" s="31">
+        <f t="shared" si="4"/>
         <v>267.08984375</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="35">
         <f>A28*M15</f>
         <v>750</v>
       </c>
       <c r="K28" s="23">
-        <f>$A28*O$15</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="L28" s="39">
-        <f t="shared" ref="L28:L43" si="5">($A28*P$15)/1024</f>
+      <c r="L28" s="31">
+        <f t="shared" ref="L28:L43" si="15">($A28*P$15)/1024</f>
         <v>267.08984375</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="35">
         <f>A28*Q15</f>
         <v>750</v>
       </c>
       <c r="N28" s="23">
-        <f>$A28*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="34">
-        <f>$A28*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P28" s="25"/>
       <c r="Q28" s="23">
-        <f>$A28*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="34">
-        <f>$A28*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B29" s="23">
-        <f t="shared" ref="B29" si="6">$A29*C$15</f>
+        <f t="shared" ref="B29" si="16">$A29*C$15</f>
         <v>4.7460000000000004</v>
       </c>
-      <c r="C29" s="39">
-        <f>($A29*D$15)/1024</f>
+      <c r="C29" s="31">
+        <f t="shared" si="0"/>
         <v>33.3984375</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="33">
         <f>A29*E15</f>
         <v>192</v>
       </c>
       <c r="E29" s="23">
-        <f>$A29*G$15</f>
+        <f t="shared" si="1"/>
         <v>2.8919999999999999</v>
       </c>
-      <c r="F29" s="39">
-        <f>($A29*H$15)/1024</f>
+      <c r="F29" s="31">
+        <f t="shared" si="2"/>
         <v>33.3984375</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="35">
         <f>A29*I15</f>
         <v>192</v>
       </c>
       <c r="H29" s="23">
-        <f>$A29*K$15</f>
+        <f t="shared" si="3"/>
         <v>13.776</v>
       </c>
-      <c r="I29" s="39">
-        <f>($A29*L$15)/1024</f>
+      <c r="I29" s="31">
+        <f t="shared" si="4"/>
         <v>320.5078125</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="35">
         <f>A29*M15</f>
         <v>900</v>
       </c>
       <c r="K29" s="23">
-        <f>$A29*O$15</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="L29" s="39">
-        <f t="shared" si="5"/>
+      <c r="L29" s="31">
+        <f t="shared" si="15"/>
         <v>320.5078125</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="35">
         <f>A29*Q15</f>
         <v>900</v>
       </c>
       <c r="N29" s="23">
-        <f>$A29*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="34">
-        <f>$A29*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P29" s="25"/>
       <c r="Q29" s="23">
-        <f>$A29*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="34">
-        <f>$A29*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S29" s="25"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="B30" s="23">
-        <f t="shared" ref="B30" si="7">$A30*C$15</f>
+        <f t="shared" ref="B30" si="17">$A30*C$15</f>
         <v>5.5369999999999999</v>
       </c>
-      <c r="C30" s="39">
-        <f>($A30*D$15)/1024</f>
+      <c r="C30" s="31">
+        <f t="shared" si="0"/>
         <v>38.96484375</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="33">
         <f>A30*E15</f>
         <v>224</v>
       </c>
       <c r="E30" s="23">
-        <f>$A30*G$15</f>
+        <f t="shared" si="1"/>
         <v>3.3739999999999997</v>
       </c>
-      <c r="F30" s="39">
-        <f>($A30*H$15)/1024</f>
+      <c r="F30" s="31">
+        <f t="shared" si="2"/>
         <v>38.96484375</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="35">
         <f>A30*I15</f>
         <v>224</v>
       </c>
       <c r="H30" s="23">
-        <f>$A30*K$15</f>
+        <f t="shared" si="3"/>
         <v>16.071999999999999</v>
       </c>
-      <c r="I30" s="39">
-        <f>($A30*L$15)/1024</f>
+      <c r="I30" s="31">
+        <f t="shared" si="4"/>
         <v>373.92578125</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="35">
         <f>A30*M15</f>
         <v>1050</v>
       </c>
       <c r="K30" s="23">
-        <f>$A30*O$15</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L30" s="39">
-        <f t="shared" si="5"/>
+      <c r="L30" s="31">
+        <f t="shared" si="15"/>
         <v>373.92578125</v>
       </c>
-      <c r="M30" s="44">
+      <c r="M30" s="35">
         <f>A30*Q15</f>
         <v>1050</v>
       </c>
       <c r="N30" s="23">
-        <f>$A30*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="34">
-        <f>$A30*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="23">
-        <f>$A30*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="34">
-        <f>$A30*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="B31" s="23">
-        <f t="shared" ref="B31" si="8">$A31*C$15</f>
+        <f t="shared" ref="B31" si="18">$A31*C$15</f>
         <v>6.3280000000000003</v>
       </c>
-      <c r="C31" s="39">
-        <f>($A31*D$15)/1024</f>
+      <c r="C31" s="31">
+        <f t="shared" si="0"/>
         <v>44.53125</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="33">
         <f>A31*E15</f>
         <v>256</v>
       </c>
       <c r="E31" s="23">
-        <f>$A31*G$15</f>
+        <f t="shared" si="1"/>
         <v>3.8559999999999999</v>
       </c>
-      <c r="F31" s="39">
-        <f>($A31*H$15)/1024</f>
+      <c r="F31" s="31">
+        <f t="shared" si="2"/>
         <v>44.53125</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="35">
         <f>A31*I15</f>
         <v>256</v>
       </c>
       <c r="H31" s="23">
-        <f>$A31*K$15</f>
+        <f t="shared" si="3"/>
         <v>18.367999999999999</v>
       </c>
-      <c r="I31" s="39">
-        <f>($A31*L$15)/1024</f>
+      <c r="I31" s="31">
+        <f t="shared" si="4"/>
         <v>427.34375</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="35">
         <f>A31*M15</f>
         <v>1200</v>
       </c>
       <c r="K31" s="23">
-        <f>$A31*O$15</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="L31" s="39">
-        <f t="shared" si="5"/>
+      <c r="L31" s="31">
+        <f t="shared" si="15"/>
         <v>427.34375</v>
       </c>
-      <c r="M31" s="44">
+      <c r="M31" s="35">
         <f>A31*Q15</f>
         <v>1200</v>
       </c>
       <c r="N31" s="23">
-        <f>$A31*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="34">
-        <f>$A31*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P31" s="25"/>
       <c r="Q31" s="23">
-        <f>$A31*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="34">
-        <f>$A31*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S31" s="25"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="B32" s="23">
-        <f t="shared" ref="B32" si="9">$A32*C$15</f>
+        <f t="shared" ref="B32" si="19">$A32*C$15</f>
         <v>7.1190000000000007</v>
       </c>
-      <c r="C32" s="39">
-        <f>($A32*D$15)/1024</f>
+      <c r="C32" s="31">
+        <f t="shared" si="0"/>
         <v>50.09765625</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="33">
         <f>A32*E15</f>
         <v>288</v>
       </c>
       <c r="E32" s="23">
-        <f>$A32*G$15</f>
+        <f t="shared" si="1"/>
         <v>4.3380000000000001</v>
       </c>
-      <c r="F32" s="39">
-        <f>($A32*H$15)/1024</f>
+      <c r="F32" s="31">
+        <f t="shared" si="2"/>
         <v>50.09765625</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="35">
         <f>A32*I15</f>
         <v>288</v>
       </c>
       <c r="H32" s="23">
-        <f>$A32*K$15</f>
+        <f t="shared" si="3"/>
         <v>20.663999999999998</v>
       </c>
-      <c r="I32" s="39">
-        <f>($A32*L$15)/1024</f>
+      <c r="I32" s="31">
+        <f t="shared" si="4"/>
         <v>480.76171875</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="35">
         <f>A32*M15</f>
         <v>1350</v>
       </c>
       <c r="K32" s="23">
-        <f>$A32*O$15</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="L32" s="39">
-        <f t="shared" si="5"/>
+      <c r="L32" s="31">
+        <f t="shared" si="15"/>
         <v>480.76171875</v>
       </c>
-      <c r="M32" s="44">
+      <c r="M32" s="35">
         <f>A32*Q15</f>
         <v>1350</v>
       </c>
       <c r="N32" s="23">
-        <f>$A32*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="34">
-        <f>$A32*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P32" s="25"/>
       <c r="Q32" s="23">
-        <f>$A32*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="34">
-        <f>$A32*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="B33" s="23">
-        <f t="shared" ref="B33" si="10">$A33*C$15</f>
+        <f t="shared" ref="B33" si="20">$A33*C$15</f>
         <v>7.91</v>
       </c>
-      <c r="C33" s="39">
-        <f>($A33*D$15)/1024</f>
+      <c r="C33" s="31">
+        <f t="shared" si="0"/>
         <v>55.6640625</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="33">
         <f>A33*E15</f>
         <v>320</v>
       </c>
       <c r="E33" s="23">
-        <f>$A33*G$15</f>
+        <f t="shared" si="1"/>
         <v>4.82</v>
       </c>
-      <c r="F33" s="39">
-        <f>($A33*H$15)/1024</f>
+      <c r="F33" s="31">
+        <f t="shared" si="2"/>
         <v>55.6640625</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="35">
         <f>A33*I15</f>
         <v>320</v>
       </c>
       <c r="H33" s="23">
-        <f>$A33*K$15</f>
+        <f t="shared" si="3"/>
         <v>22.959999999999997</v>
       </c>
-      <c r="I33" s="39">
-        <f>($A33*L$15)/1024</f>
+      <c r="I33" s="31">
+        <f t="shared" si="4"/>
         <v>534.1796875</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="35">
         <f>A33*M15</f>
         <v>1500</v>
       </c>
       <c r="K33" s="23">
-        <f>$A33*O$15</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="L33" s="39">
-        <f t="shared" si="5"/>
+      <c r="L33" s="31">
+        <f t="shared" si="15"/>
         <v>534.1796875</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="35">
         <f>A33*Q15</f>
         <v>1500</v>
       </c>
       <c r="N33" s="23">
-        <f>$A33*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="34">
-        <f>$A33*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P33" s="25"/>
       <c r="Q33" s="23">
-        <f>$A33*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="34">
-        <f>$A33*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S33" s="25"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="B34" s="23">
-        <f t="shared" ref="B34" si="11">$A34*C$15</f>
+        <f t="shared" ref="B34" si="21">$A34*C$15</f>
         <v>8.7010000000000005</v>
       </c>
-      <c r="C34" s="39">
-        <f>($A34*D$15)/1024</f>
+      <c r="C34" s="31">
+        <f t="shared" si="0"/>
         <v>61.23046875</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="33">
         <f>A34*E15</f>
         <v>352</v>
       </c>
       <c r="E34" s="23">
-        <f>$A34*G$15</f>
+        <f t="shared" si="1"/>
         <v>5.3019999999999996</v>
       </c>
-      <c r="F34" s="39">
-        <f>($A34*H$15)/1024</f>
+      <c r="F34" s="31">
+        <f t="shared" si="2"/>
         <v>61.23046875</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="35">
         <f>A34*I15</f>
         <v>352</v>
       </c>
       <c r="H34" s="23">
-        <f>$A34*K$15</f>
+        <f t="shared" si="3"/>
         <v>25.255999999999997</v>
       </c>
-      <c r="I34" s="39">
-        <f>($A34*L$15)/1024</f>
+      <c r="I34" s="31">
+        <f t="shared" si="4"/>
         <v>587.59765625</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="35">
         <f>A34*M15</f>
         <v>1650</v>
       </c>
       <c r="K34" s="23">
-        <f>$A34*O$15</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="L34" s="39">
-        <f t="shared" si="5"/>
+      <c r="L34" s="31">
+        <f t="shared" si="15"/>
         <v>587.59765625</v>
       </c>
-      <c r="M34" s="44">
+      <c r="M34" s="35">
         <f>A34*Q15</f>
         <v>1650</v>
       </c>
       <c r="N34" s="23">
-        <f>$A34*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="34">
-        <f>$A34*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P34" s="25"/>
       <c r="Q34" s="23">
-        <f>$A34*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="34">
-        <f>$A34*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="B35" s="23">
-        <f t="shared" ref="B35" si="12">$A35*C$15</f>
+        <f t="shared" ref="B35" si="22">$A35*C$15</f>
         <v>9.4920000000000009</v>
       </c>
-      <c r="C35" s="39">
-        <f>($A35*D$15)/1024</f>
+      <c r="C35" s="31">
+        <f t="shared" si="0"/>
         <v>66.796875</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="33">
         <f>A35*E15</f>
         <v>384</v>
       </c>
       <c r="E35" s="23">
-        <f>$A35*G$15</f>
+        <f t="shared" si="1"/>
         <v>5.7839999999999998</v>
       </c>
-      <c r="F35" s="39">
-        <f>($A35*H$15)/1024</f>
+      <c r="F35" s="31">
+        <f t="shared" si="2"/>
         <v>66.796875</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="35">
         <f>A35*I15</f>
         <v>384</v>
       </c>
       <c r="H35" s="23">
-        <f>$A35*K$15</f>
+        <f t="shared" si="3"/>
         <v>27.552</v>
       </c>
-      <c r="I35" s="39">
-        <f>($A35*L$15)/1024</f>
+      <c r="I35" s="31">
+        <f t="shared" si="4"/>
         <v>641.015625</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="35">
         <f>A35*M15</f>
         <v>1800</v>
       </c>
       <c r="K35" s="23">
-        <f>$A35*O$15</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="L35" s="39">
-        <f t="shared" si="5"/>
+      <c r="L35" s="31">
+        <f t="shared" si="15"/>
         <v>641.015625</v>
       </c>
-      <c r="M35" s="44">
+      <c r="M35" s="35">
         <f>A35*Q15</f>
         <v>1800</v>
       </c>
       <c r="N35" s="23">
-        <f>$A35*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="34">
-        <f>$A35*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35" s="25"/>
       <c r="Q35" s="23">
-        <f>$A35*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="34">
-        <f>$A35*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S35" s="25"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="B36" s="23">
-        <f t="shared" ref="B36" si="13">$A36*C$15</f>
+        <f t="shared" ref="B36" si="23">$A36*C$15</f>
         <v>10.283000000000001</v>
       </c>
-      <c r="C36" s="39">
-        <f>($A36*D$15)/1024</f>
+      <c r="C36" s="31">
+        <f t="shared" si="0"/>
         <v>72.36328125</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="33">
         <f>A36*E15</f>
         <v>416</v>
       </c>
       <c r="E36" s="23">
-        <f>$A36*G$15</f>
+        <f t="shared" si="1"/>
         <v>6.266</v>
       </c>
-      <c r="F36" s="39">
-        <f>($A36*H$15)/1024</f>
+      <c r="F36" s="31">
+        <f t="shared" si="2"/>
         <v>72.36328125</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="35">
         <f>A36*I15</f>
         <v>416</v>
       </c>
       <c r="H36" s="23">
-        <f>$A36*K$15</f>
+        <f t="shared" si="3"/>
         <v>29.847999999999999</v>
       </c>
-      <c r="I36" s="39">
-        <f>($A36*L$15)/1024</f>
+      <c r="I36" s="31">
+        <f t="shared" si="4"/>
         <v>694.43359375</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="35">
         <f>A36*M15</f>
         <v>1950</v>
       </c>
       <c r="K36" s="23">
-        <f>$A36*O$15</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="L36" s="39">
-        <f t="shared" si="5"/>
+      <c r="L36" s="31">
+        <f t="shared" si="15"/>
         <v>694.43359375</v>
       </c>
-      <c r="M36" s="44">
+      <c r="M36" s="35">
         <f>A36*Q15</f>
         <v>1950</v>
       </c>
       <c r="N36" s="23">
-        <f>$A36*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="34">
-        <f>$A36*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P36" s="25"/>
       <c r="Q36" s="23">
-        <f>$A36*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="34">
-        <f>$A36*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="B37" s="23">
-        <f t="shared" ref="B37" si="14">$A37*C$15</f>
+        <f t="shared" ref="B37" si="24">$A37*C$15</f>
         <v>11.074</v>
       </c>
-      <c r="C37" s="39">
-        <f>($A37*D$15)/1024</f>
+      <c r="C37" s="31">
+        <f t="shared" si="0"/>
         <v>77.9296875</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="33">
         <f>A37*E15</f>
         <v>448</v>
       </c>
       <c r="E37" s="23">
-        <f>$A37*G$15</f>
+        <f t="shared" si="1"/>
         <v>6.7479999999999993</v>
       </c>
-      <c r="F37" s="39">
-        <f>($A37*H$15)/1024</f>
+      <c r="F37" s="31">
+        <f t="shared" si="2"/>
         <v>77.9296875</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="35">
         <f>A37*I15</f>
         <v>448</v>
       </c>
       <c r="H37" s="23">
-        <f>$A37*K$15</f>
+        <f t="shared" si="3"/>
         <v>32.143999999999998</v>
       </c>
-      <c r="I37" s="39">
-        <f>($A37*L$15)/1024</f>
+      <c r="I37" s="31">
+        <f t="shared" si="4"/>
         <v>747.8515625</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="35">
         <f>A37*M15</f>
         <v>2100</v>
       </c>
       <c r="K37" s="23">
-        <f>$A37*O$15</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="L37" s="39">
-        <f t="shared" si="5"/>
+      <c r="L37" s="31">
+        <f t="shared" si="15"/>
         <v>747.8515625</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M37" s="35">
         <f>A37*Q15</f>
         <v>2100</v>
       </c>
       <c r="N37" s="23">
-        <f>$A37*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="34">
-        <f>$A37*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P37" s="25"/>
       <c r="Q37" s="23">
-        <f>$A37*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="34">
-        <f>$A37*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S37" s="25"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="B38" s="23">
-        <f t="shared" ref="B38" si="15">$A38*C$15</f>
+        <f t="shared" ref="B38" si="25">$A38*C$15</f>
         <v>11.865</v>
       </c>
-      <c r="C38" s="39">
-        <f>($A38*D$15)/1024</f>
+      <c r="C38" s="31">
+        <f t="shared" si="0"/>
         <v>83.49609375</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="33">
         <f>A38*E15</f>
         <v>480</v>
       </c>
       <c r="E38" s="23">
-        <f>$A38*G$15</f>
+        <f t="shared" si="1"/>
         <v>7.2299999999999995</v>
       </c>
-      <c r="F38" s="39">
-        <f>($A38*H$15)/1024</f>
+      <c r="F38" s="31">
+        <f t="shared" si="2"/>
         <v>83.49609375</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="35">
         <f>A38*I15</f>
         <v>480</v>
       </c>
       <c r="H38" s="23">
-        <f>$A38*K$15</f>
+        <f t="shared" si="3"/>
         <v>34.44</v>
       </c>
-      <c r="I38" s="39">
-        <f>($A38*L$15)/1024</f>
+      <c r="I38" s="31">
+        <f t="shared" si="4"/>
         <v>801.26953125</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="35">
         <f>A38*M15</f>
         <v>2250</v>
       </c>
       <c r="K38" s="23">
-        <f>$A38*O$15</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="L38" s="39">
-        <f t="shared" si="5"/>
+      <c r="L38" s="31">
+        <f t="shared" si="15"/>
         <v>801.26953125</v>
       </c>
-      <c r="M38" s="44">
+      <c r="M38" s="35">
         <f>A38*Q15</f>
         <v>2250</v>
       </c>
       <c r="N38" s="23">
-        <f>$A38*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="34">
-        <f>$A38*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P38" s="25"/>
       <c r="Q38" s="23">
-        <f>$A38*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="34">
-        <f>$A38*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="B39" s="23">
-        <f t="shared" ref="B39" si="16">$A39*C$15</f>
+        <f t="shared" ref="B39" si="26">$A39*C$15</f>
         <v>12.656000000000001</v>
       </c>
-      <c r="C39" s="39">
-        <f>($A39*D$15)/1024</f>
+      <c r="C39" s="31">
+        <f t="shared" si="0"/>
         <v>89.0625</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="33">
         <f>A39*E15</f>
         <v>512</v>
       </c>
       <c r="E39" s="23">
-        <f>$A39*G$15</f>
+        <f t="shared" si="1"/>
         <v>7.7119999999999997</v>
       </c>
-      <c r="F39" s="39">
-        <f>($A39*H$15)/1024</f>
+      <c r="F39" s="31">
+        <f t="shared" si="2"/>
         <v>89.0625</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="35">
         <f>A39*I15</f>
         <v>512</v>
       </c>
       <c r="H39" s="23">
-        <f>$A39*K$15</f>
+        <f t="shared" si="3"/>
         <v>36.735999999999997</v>
       </c>
-      <c r="I39" s="39">
-        <f>($A39*L$15)/1024</f>
+      <c r="I39" s="31">
+        <f t="shared" si="4"/>
         <v>854.6875</v>
       </c>
-      <c r="J39" s="44">
+      <c r="J39" s="35">
         <f>A39*M15</f>
         <v>2400</v>
       </c>
       <c r="K39" s="23">
-        <f>$A39*O$15</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="L39" s="39">
-        <f t="shared" si="5"/>
+      <c r="L39" s="31">
+        <f t="shared" si="15"/>
         <v>854.6875</v>
       </c>
-      <c r="M39" s="44">
+      <c r="M39" s="35">
         <f>A39*Q15</f>
         <v>2400</v>
       </c>
       <c r="N39" s="23">
-        <f>$A39*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="34">
-        <f>$A39*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P39" s="25"/>
       <c r="Q39" s="23">
-        <f>$A39*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="34">
-        <f>$A39*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S39" s="25"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="B40" s="23">
-        <f t="shared" ref="B40" si="17">$A40*C$15</f>
+        <f t="shared" ref="B40" si="27">$A40*C$15</f>
         <v>13.447000000000001</v>
       </c>
-      <c r="C40" s="39">
-        <f>($A40*D$15)/1024</f>
+      <c r="C40" s="31">
+        <f t="shared" si="0"/>
         <v>94.62890625</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="33">
         <f>A40*E15</f>
         <v>544</v>
       </c>
       <c r="E40" s="23">
-        <f>$A40*G$15</f>
+        <f t="shared" si="1"/>
         <v>8.1939999999999991</v>
       </c>
-      <c r="F40" s="39">
-        <f>($A40*H$15)/1024</f>
+      <c r="F40" s="31">
+        <f t="shared" si="2"/>
         <v>94.62890625</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="35">
         <f>A40*I15</f>
         <v>544</v>
       </c>
       <c r="H40" s="23">
-        <f>$A40*K$15</f>
+        <f t="shared" si="3"/>
         <v>39.031999999999996</v>
       </c>
-      <c r="I40" s="39">
-        <f>($A40*L$15)/1024</f>
+      <c r="I40" s="31">
+        <f t="shared" si="4"/>
         <v>908.10546875</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="35">
         <f>A40*M15</f>
         <v>2550</v>
       </c>
       <c r="K40" s="23">
-        <f>$A40*O$15</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="L40" s="39">
-        <f t="shared" si="5"/>
+      <c r="L40" s="31">
+        <f t="shared" si="15"/>
         <v>908.10546875</v>
       </c>
-      <c r="M40" s="44">
+      <c r="M40" s="35">
         <f>A40*Q15</f>
         <v>2550</v>
       </c>
       <c r="N40" s="23">
-        <f>$A40*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="34">
-        <f>$A40*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P40" s="25"/>
       <c r="Q40" s="23">
-        <f>$A40*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="34">
-        <f>$A40*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="B41" s="23">
-        <f t="shared" ref="B41" si="18">$A41*C$15</f>
+        <f t="shared" ref="B41" si="28">$A41*C$15</f>
         <v>14.238000000000001</v>
       </c>
-      <c r="C41" s="39">
-        <f>($A41*D$15)/1024</f>
+      <c r="C41" s="31">
+        <f t="shared" si="0"/>
         <v>100.1953125</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="33">
         <f>A41*E15</f>
         <v>576</v>
       </c>
       <c r="E41" s="23">
-        <f>$A41*G$15</f>
+        <f t="shared" si="1"/>
         <v>8.6760000000000002</v>
       </c>
-      <c r="F41" s="39">
-        <f>($A41*H$15)/1024</f>
+      <c r="F41" s="31">
+        <f t="shared" si="2"/>
         <v>100.1953125</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="35">
         <f>A41*I15</f>
         <v>576</v>
       </c>
       <c r="H41" s="23">
-        <f>$A41*K$15</f>
+        <f t="shared" si="3"/>
         <v>41.327999999999996</v>
       </c>
-      <c r="I41" s="39">
-        <f>($A41*L$15)/1024</f>
+      <c r="I41" s="31">
+        <f t="shared" si="4"/>
         <v>961.5234375</v>
       </c>
-      <c r="J41" s="44">
+      <c r="J41" s="35">
         <f>A41*M15</f>
         <v>2700</v>
       </c>
       <c r="K41" s="23">
-        <f>$A41*O$15</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="L41" s="39">
-        <f t="shared" si="5"/>
+      <c r="L41" s="31">
+        <f t="shared" si="15"/>
         <v>961.5234375</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="35">
         <f>A41*Q15</f>
         <v>2700</v>
       </c>
       <c r="N41" s="23">
-        <f>$A41*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="34">
-        <f>$A41*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P41" s="25"/>
       <c r="Q41" s="23">
-        <f>$A41*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="34">
-        <f>$A41*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S41" s="25"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="B42" s="23">
-        <f t="shared" ref="B42" si="19">$A42*C$15</f>
+        <f t="shared" ref="B42" si="29">$A42*C$15</f>
         <v>15.029</v>
       </c>
-      <c r="C42" s="39">
-        <f>($A42*D$15)/1024</f>
+      <c r="C42" s="31">
+        <f t="shared" si="0"/>
         <v>105.76171875</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="33">
         <f>A42*E15</f>
         <v>608</v>
       </c>
       <c r="E42" s="23">
-        <f>$A42*G$15</f>
+        <f t="shared" si="1"/>
         <v>9.1579999999999995</v>
       </c>
-      <c r="F42" s="39">
-        <f>($A42*H$15)/1024</f>
+      <c r="F42" s="31">
+        <f t="shared" si="2"/>
         <v>105.76171875</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="35">
         <f>A42*I15</f>
         <v>608</v>
       </c>
       <c r="H42" s="23">
-        <f>$A42*K$15</f>
+        <f t="shared" si="3"/>
         <v>43.623999999999995</v>
       </c>
-      <c r="I42" s="39">
-        <f>($A42*L$15)/1024</f>
+      <c r="I42" s="31">
+        <f t="shared" si="4"/>
         <v>1014.94140625</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J42" s="35">
         <f>A42*M15</f>
         <v>2850</v>
       </c>
       <c r="K42" s="23">
-        <f>$A42*O$15</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="L42" s="39">
-        <f t="shared" si="5"/>
+      <c r="L42" s="31">
+        <f t="shared" si="15"/>
         <v>1014.94140625</v>
       </c>
-      <c r="M42" s="44">
+      <c r="M42" s="35">
         <f>A42*Q15</f>
         <v>2850</v>
       </c>
       <c r="N42" s="23">
-        <f>$A42*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="34">
-        <f>$A42*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="23">
-        <f>$A42*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="34">
-        <f>$A42*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="B43" s="24">
         <f>$A43*C$15</f>
         <v>15.82</v>
       </c>
-      <c r="C43" s="47">
-        <f>($A43*D$15)/1024</f>
+      <c r="C43" s="38">
+        <f t="shared" si="0"/>
         <v>111.328125</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="34">
         <f>A43*E15</f>
         <v>640</v>
       </c>
       <c r="E43" s="24">
-        <f>$A43*G$15</f>
+        <f t="shared" si="1"/>
         <v>9.64</v>
       </c>
-      <c r="F43" s="47">
-        <f>($A43*H$15)/1024</f>
+      <c r="F43" s="38">
+        <f t="shared" si="2"/>
         <v>111.328125</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="36">
         <f>A43*I15</f>
         <v>640</v>
       </c>
       <c r="H43" s="24">
-        <f>$A43*K$15</f>
+        <f t="shared" si="3"/>
         <v>45.919999999999995</v>
       </c>
-      <c r="I43" s="47">
-        <f>($A43*L$15)/1024</f>
+      <c r="I43" s="38">
+        <f t="shared" si="4"/>
         <v>1068.359375</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="36">
         <f>A43*M15</f>
         <v>3000</v>
       </c>
       <c r="K43" s="24">
-        <f>$A43*O$15</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="L43" s="47">
-        <f t="shared" si="5"/>
+      <c r="L43" s="38">
+        <f t="shared" si="15"/>
         <v>1068.359375</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="36">
         <f>A43*Q15</f>
         <v>3000</v>
       </c>
       <c r="N43" s="24">
-        <f>$A43*S$15</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="35">
-        <f>$A43*T$15</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="28">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P43" s="26"/>
       <c r="Q43" s="24">
-        <f>$A43*V$15</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="35">
-        <f>$A43*W$15</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="28">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S43" s="26"/>
     </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B47" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S48" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23">
+        <f>$A49*C$7</f>
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="31">
+        <f>($A49*D$7)/1024</f>
+        <v>1.66015625</v>
+      </c>
+      <c r="D49" s="33">
+        <f>A49*E$7</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="23">
+        <f>$A49*G$7</f>
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="31">
+        <f>($A49*H$7)/1024</f>
+        <v>1.66015625</v>
+      </c>
+      <c r="G49" s="35">
+        <f>A49*I$7</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
+        <f>$A49*K$7</f>
+        <v>3.3</v>
+      </c>
+      <c r="I49" s="31">
+        <f>($A49*L$7)/1024</f>
+        <v>19.04296875</v>
+      </c>
+      <c r="J49" s="35">
+        <f>A49*M$7</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="23">
+        <f>$A49*O$7</f>
+        <v>3.1</v>
+      </c>
+      <c r="L49" s="31">
+        <f>($A49*P$7)/1024</f>
+        <v>19.04296875</v>
+      </c>
+      <c r="M49" s="35">
+        <f>A49*Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="23">
+        <f t="shared" ref="N49:N68" si="30">$A49*S$15</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="27">
+        <f t="shared" ref="O49:O68" si="31">$A49*T$15</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="23">
+        <f t="shared" ref="Q49:Q68" si="32">$A49*V$15</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="27">
+        <f t="shared" ref="R49:R68" si="33">$A49*W$15</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="25"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>A49+1</f>
+        <v>2</v>
+      </c>
+      <c r="B50" s="23">
+        <f>$A50*C$7</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="31">
+        <f>($A50*D$7)/1024</f>
+        <v>3.3203125</v>
+      </c>
+      <c r="D50" s="33">
+        <f>A50*E$7</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="23">
+        <f t="shared" ref="E50:E68" si="34">$A50*G$7</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="31">
+        <f t="shared" ref="F50:F68" si="35">($A50*H$7)/1024</f>
+        <v>3.3203125</v>
+      </c>
+      <c r="G50" s="35">
+        <f t="shared" ref="G50:G68" si="36">A50*I$7</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="23">
+        <f t="shared" ref="H50:H68" si="37">$A50*K$7</f>
+        <v>6.6</v>
+      </c>
+      <c r="I50" s="31">
+        <f t="shared" ref="I50:I68" si="38">($A50*L$7)/1024</f>
+        <v>38.0859375</v>
+      </c>
+      <c r="J50" s="35">
+        <f t="shared" ref="J50:J68" si="39">A50*M$7</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="23">
+        <f t="shared" ref="K50:K68" si="40">$A50*O$7</f>
+        <v>6.2</v>
+      </c>
+      <c r="L50" s="31">
+        <f t="shared" ref="L50:L68" si="41">($A50*P$7)/1024</f>
+        <v>38.0859375</v>
+      </c>
+      <c r="M50" s="35">
+        <f t="shared" ref="M50:M68" si="42">A50*Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="25"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" ref="A51:A68" si="43">A50+1</f>
+        <v>3</v>
+      </c>
+      <c r="B51" s="23">
+        <f t="shared" ref="B51:B68" si="44">$A51*C$7</f>
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="31">
+        <f t="shared" ref="C51:C68" si="45">($A51*D$7)/1024</f>
+        <v>4.98046875</v>
+      </c>
+      <c r="D51" s="33">
+        <f t="shared" ref="D51:D68" si="46">A51*E$7</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="23">
+        <f t="shared" si="34"/>
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="31">
+        <f t="shared" si="35"/>
+        <v>4.98046875</v>
+      </c>
+      <c r="G51" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="23">
+        <f t="shared" si="37"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="I51" s="31">
+        <f t="shared" si="38"/>
+        <v>57.12890625</v>
+      </c>
+      <c r="J51" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="23">
+        <f t="shared" si="40"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L51" s="31">
+        <f t="shared" si="41"/>
+        <v>57.12890625</v>
+      </c>
+      <c r="M51" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="25"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="B52" s="23">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="31">
+        <f t="shared" si="45"/>
+        <v>6.640625</v>
+      </c>
+      <c r="D52" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="23">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="31">
+        <f t="shared" si="35"/>
+        <v>6.640625</v>
+      </c>
+      <c r="G52" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="23">
+        <f t="shared" si="37"/>
+        <v>13.2</v>
+      </c>
+      <c r="I52" s="31">
+        <f t="shared" si="38"/>
+        <v>76.171875</v>
+      </c>
+      <c r="J52" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="23">
+        <f t="shared" si="40"/>
+        <v>12.4</v>
+      </c>
+      <c r="L52" s="31">
+        <f t="shared" si="41"/>
+        <v>76.171875</v>
+      </c>
+      <c r="M52" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="25"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="B53" s="23">
+        <f t="shared" si="44"/>
+        <v>2.5</v>
+      </c>
+      <c r="C53" s="31">
+        <f t="shared" si="45"/>
+        <v>8.30078125</v>
+      </c>
+      <c r="D53" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="23">
+        <f t="shared" si="34"/>
+        <v>2.5</v>
+      </c>
+      <c r="F53" s="31">
+        <f t="shared" si="35"/>
+        <v>8.30078125</v>
+      </c>
+      <c r="G53" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
+        <f t="shared" si="37"/>
+        <v>16.5</v>
+      </c>
+      <c r="I53" s="31">
+        <f t="shared" si="38"/>
+        <v>95.21484375</v>
+      </c>
+      <c r="J53" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="23">
+        <f t="shared" si="40"/>
+        <v>15.5</v>
+      </c>
+      <c r="L53" s="31">
+        <f t="shared" si="41"/>
+        <v>95.21484375</v>
+      </c>
+      <c r="M53" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="25"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="B54" s="23">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="C54" s="31">
+        <f t="shared" si="45"/>
+        <v>9.9609375</v>
+      </c>
+      <c r="D54" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="23">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="F54" s="31">
+        <f t="shared" si="35"/>
+        <v>9.9609375</v>
+      </c>
+      <c r="G54" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <f t="shared" si="37"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="I54" s="31">
+        <f t="shared" si="38"/>
+        <v>114.2578125</v>
+      </c>
+      <c r="J54" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="23">
+        <f t="shared" si="40"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L54" s="31">
+        <f t="shared" si="41"/>
+        <v>114.2578125</v>
+      </c>
+      <c r="M54" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="25"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="B55" s="23">
+        <f t="shared" si="44"/>
+        <v>3.5</v>
+      </c>
+      <c r="C55" s="31">
+        <f t="shared" si="45"/>
+        <v>11.62109375</v>
+      </c>
+      <c r="D55" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="23">
+        <f t="shared" si="34"/>
+        <v>3.5</v>
+      </c>
+      <c r="F55" s="31">
+        <f t="shared" si="35"/>
+        <v>11.62109375</v>
+      </c>
+      <c r="G55" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="23">
+        <f t="shared" si="37"/>
+        <v>23.099999999999998</v>
+      </c>
+      <c r="I55" s="31">
+        <f t="shared" si="38"/>
+        <v>133.30078125</v>
+      </c>
+      <c r="J55" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="23">
+        <f t="shared" si="40"/>
+        <v>21.7</v>
+      </c>
+      <c r="L55" s="31">
+        <f t="shared" si="41"/>
+        <v>133.30078125</v>
+      </c>
+      <c r="M55" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="25"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="B56" s="23">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="C56" s="31">
+        <f t="shared" si="45"/>
+        <v>13.28125</v>
+      </c>
+      <c r="D56" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="23">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="F56" s="31">
+        <f t="shared" si="35"/>
+        <v>13.28125</v>
+      </c>
+      <c r="G56" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <f t="shared" si="37"/>
+        <v>26.4</v>
+      </c>
+      <c r="I56" s="31">
+        <f t="shared" si="38"/>
+        <v>152.34375</v>
+      </c>
+      <c r="J56" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="23">
+        <f t="shared" si="40"/>
+        <v>24.8</v>
+      </c>
+      <c r="L56" s="31">
+        <f t="shared" si="41"/>
+        <v>152.34375</v>
+      </c>
+      <c r="M56" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="25"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="B57" s="23">
+        <f t="shared" si="44"/>
+        <v>4.5</v>
+      </c>
+      <c r="C57" s="31">
+        <f t="shared" si="45"/>
+        <v>14.94140625</v>
+      </c>
+      <c r="D57" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="23">
+        <f t="shared" si="34"/>
+        <v>4.5</v>
+      </c>
+      <c r="F57" s="31">
+        <f t="shared" si="35"/>
+        <v>14.94140625</v>
+      </c>
+      <c r="G57" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
+        <f t="shared" si="37"/>
+        <v>29.7</v>
+      </c>
+      <c r="I57" s="31">
+        <f t="shared" si="38"/>
+        <v>171.38671875</v>
+      </c>
+      <c r="J57" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="23">
+        <f t="shared" si="40"/>
+        <v>27.900000000000002</v>
+      </c>
+      <c r="L57" s="31">
+        <f t="shared" si="41"/>
+        <v>171.38671875</v>
+      </c>
+      <c r="M57" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="25"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="B58" s="23">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="C58" s="31">
+        <f t="shared" si="45"/>
+        <v>16.6015625</v>
+      </c>
+      <c r="D58" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="F58" s="31">
+        <f t="shared" si="35"/>
+        <v>16.6015625</v>
+      </c>
+      <c r="G58" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <f t="shared" si="37"/>
+        <v>33</v>
+      </c>
+      <c r="I58" s="31">
+        <f t="shared" si="38"/>
+        <v>190.4296875</v>
+      </c>
+      <c r="J58" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="23">
+        <f t="shared" si="40"/>
+        <v>31</v>
+      </c>
+      <c r="L58" s="31">
+        <f t="shared" si="41"/>
+        <v>190.4296875</v>
+      </c>
+      <c r="M58" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="25"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="B59" s="23">
+        <f t="shared" si="44"/>
+        <v>5.5</v>
+      </c>
+      <c r="C59" s="31">
+        <f t="shared" si="45"/>
+        <v>18.26171875</v>
+      </c>
+      <c r="D59" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="23">
+        <f t="shared" si="34"/>
+        <v>5.5</v>
+      </c>
+      <c r="F59" s="31">
+        <f t="shared" si="35"/>
+        <v>18.26171875</v>
+      </c>
+      <c r="G59" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="23">
+        <f t="shared" si="37"/>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="I59" s="31">
+        <f t="shared" si="38"/>
+        <v>209.47265625</v>
+      </c>
+      <c r="J59" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="23">
+        <f t="shared" si="40"/>
+        <v>34.1</v>
+      </c>
+      <c r="L59" s="31">
+        <f t="shared" si="41"/>
+        <v>209.47265625</v>
+      </c>
+      <c r="M59" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="25"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+      <c r="B60" s="23">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="C60" s="31">
+        <f t="shared" si="45"/>
+        <v>19.921875</v>
+      </c>
+      <c r="D60" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="23">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="F60" s="31">
+        <f t="shared" si="35"/>
+        <v>19.921875</v>
+      </c>
+      <c r="G60" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="23">
+        <f t="shared" si="37"/>
+        <v>39.599999999999994</v>
+      </c>
+      <c r="I60" s="31">
+        <f t="shared" si="38"/>
+        <v>228.515625</v>
+      </c>
+      <c r="J60" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="23">
+        <f t="shared" si="40"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L60" s="31">
+        <f t="shared" si="41"/>
+        <v>228.515625</v>
+      </c>
+      <c r="M60" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="25"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="B61" s="23">
+        <f t="shared" si="44"/>
+        <v>6.5</v>
+      </c>
+      <c r="C61" s="31">
+        <f t="shared" si="45"/>
+        <v>21.58203125</v>
+      </c>
+      <c r="D61" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <f t="shared" si="34"/>
+        <v>6.5</v>
+      </c>
+      <c r="F61" s="31">
+        <f t="shared" si="35"/>
+        <v>21.58203125</v>
+      </c>
+      <c r="G61" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="23">
+        <f t="shared" si="37"/>
+        <v>42.9</v>
+      </c>
+      <c r="I61" s="31">
+        <f t="shared" si="38"/>
+        <v>247.55859375</v>
+      </c>
+      <c r="J61" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="23">
+        <f t="shared" si="40"/>
+        <v>40.300000000000004</v>
+      </c>
+      <c r="L61" s="31">
+        <f t="shared" si="41"/>
+        <v>247.55859375</v>
+      </c>
+      <c r="M61" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="25"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="43"/>
+        <v>14</v>
+      </c>
+      <c r="B62" s="23">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="C62" s="31">
+        <f t="shared" si="45"/>
+        <v>23.2421875</v>
+      </c>
+      <c r="D62" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="23">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="F62" s="31">
+        <f t="shared" si="35"/>
+        <v>23.2421875</v>
+      </c>
+      <c r="G62" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
+        <f t="shared" si="37"/>
+        <v>46.199999999999996</v>
+      </c>
+      <c r="I62" s="31">
+        <f t="shared" si="38"/>
+        <v>266.6015625</v>
+      </c>
+      <c r="J62" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="23">
+        <f t="shared" si="40"/>
+        <v>43.4</v>
+      </c>
+      <c r="L62" s="31">
+        <f t="shared" si="41"/>
+        <v>266.6015625</v>
+      </c>
+      <c r="M62" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="25"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="43"/>
+        <v>15</v>
+      </c>
+      <c r="B63" s="23">
+        <f t="shared" si="44"/>
+        <v>7.5</v>
+      </c>
+      <c r="C63" s="31">
+        <f t="shared" si="45"/>
+        <v>24.90234375</v>
+      </c>
+      <c r="D63" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="23">
+        <f t="shared" si="34"/>
+        <v>7.5</v>
+      </c>
+      <c r="F63" s="31">
+        <f t="shared" si="35"/>
+        <v>24.90234375</v>
+      </c>
+      <c r="G63" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="23">
+        <f t="shared" si="37"/>
+        <v>49.5</v>
+      </c>
+      <c r="I63" s="31">
+        <f t="shared" si="38"/>
+        <v>285.64453125</v>
+      </c>
+      <c r="J63" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="23">
+        <f t="shared" si="40"/>
+        <v>46.5</v>
+      </c>
+      <c r="L63" s="31">
+        <f t="shared" si="41"/>
+        <v>285.64453125</v>
+      </c>
+      <c r="M63" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="B64" s="23">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="C64" s="31">
+        <f t="shared" si="45"/>
+        <v>26.5625</v>
+      </c>
+      <c r="D64" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="23">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="F64" s="31">
+        <f t="shared" si="35"/>
+        <v>26.5625</v>
+      </c>
+      <c r="G64" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="23">
+        <f t="shared" si="37"/>
+        <v>52.8</v>
+      </c>
+      <c r="I64" s="31">
+        <f t="shared" si="38"/>
+        <v>304.6875</v>
+      </c>
+      <c r="J64" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="23">
+        <f t="shared" si="40"/>
+        <v>49.6</v>
+      </c>
+      <c r="L64" s="31">
+        <f t="shared" si="41"/>
+        <v>304.6875</v>
+      </c>
+      <c r="M64" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="43"/>
+        <v>17</v>
+      </c>
+      <c r="B65" s="23">
+        <f t="shared" si="44"/>
+        <v>8.5</v>
+      </c>
+      <c r="C65" s="31">
+        <f t="shared" si="45"/>
+        <v>28.22265625</v>
+      </c>
+      <c r="D65" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="23">
+        <f t="shared" si="34"/>
+        <v>8.5</v>
+      </c>
+      <c r="F65" s="31">
+        <f t="shared" si="35"/>
+        <v>28.22265625</v>
+      </c>
+      <c r="G65" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="23">
+        <f t="shared" si="37"/>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="I65" s="31">
+        <f t="shared" si="38"/>
+        <v>323.73046875</v>
+      </c>
+      <c r="J65" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="23">
+        <f t="shared" si="40"/>
+        <v>52.7</v>
+      </c>
+      <c r="L65" s="31">
+        <f t="shared" si="41"/>
+        <v>323.73046875</v>
+      </c>
+      <c r="M65" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="25"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="43"/>
+        <v>18</v>
+      </c>
+      <c r="B66" s="23">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="C66" s="31">
+        <f t="shared" si="45"/>
+        <v>29.8828125</v>
+      </c>
+      <c r="D66" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="23">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="F66" s="31">
+        <f t="shared" si="35"/>
+        <v>29.8828125</v>
+      </c>
+      <c r="G66" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="23">
+        <f t="shared" si="37"/>
+        <v>59.4</v>
+      </c>
+      <c r="I66" s="31">
+        <f t="shared" si="38"/>
+        <v>342.7734375</v>
+      </c>
+      <c r="J66" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="23">
+        <f t="shared" si="40"/>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="L66" s="31">
+        <f t="shared" si="41"/>
+        <v>342.7734375</v>
+      </c>
+      <c r="M66" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="25"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+      <c r="B67" s="23">
+        <f t="shared" si="44"/>
+        <v>9.5</v>
+      </c>
+      <c r="C67" s="31">
+        <f t="shared" si="45"/>
+        <v>31.54296875</v>
+      </c>
+      <c r="D67" s="33">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="23">
+        <f t="shared" si="34"/>
+        <v>9.5</v>
+      </c>
+      <c r="F67" s="31">
+        <f t="shared" si="35"/>
+        <v>31.54296875</v>
+      </c>
+      <c r="G67" s="35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="23">
+        <f t="shared" si="37"/>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="I67" s="31">
+        <f t="shared" si="38"/>
+        <v>361.81640625</v>
+      </c>
+      <c r="J67" s="35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="23">
+        <f t="shared" si="40"/>
+        <v>58.9</v>
+      </c>
+      <c r="L67" s="31">
+        <f t="shared" si="41"/>
+        <v>361.81640625</v>
+      </c>
+      <c r="M67" s="35">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="25"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="43"/>
+        <v>20</v>
+      </c>
+      <c r="B68" s="24">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="C68" s="38">
+        <f t="shared" si="45"/>
+        <v>33.203125</v>
+      </c>
+      <c r="D68" s="34">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="24">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="F68" s="38">
+        <f t="shared" si="35"/>
+        <v>33.203125</v>
+      </c>
+      <c r="G68" s="36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="24">
+        <f t="shared" si="37"/>
+        <v>66</v>
+      </c>
+      <c r="I68" s="38">
+        <f t="shared" si="38"/>
+        <v>380.859375</v>
+      </c>
+      <c r="J68" s="36">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="24">
+        <f t="shared" si="40"/>
+        <v>62</v>
+      </c>
+      <c r="L68" s="38">
+        <f t="shared" si="41"/>
+        <v>380.859375</v>
+      </c>
+      <c r="M68" s="36">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="24">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="28">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="24">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
+  <mergeCells count="18">
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3435,124 +4980,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="41">
         <f>Sheet1!C7</f>
         <v>0.5</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="41">
         <f>(Sheet1!D7)/1024</f>
         <v>1.66015625</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="41">
         <f>Sheet1!E7</f>
         <v>0</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="41">
         <f>Sheet1!O7</f>
         <v>3.1</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="41">
         <f>(Sheet1!P7)/1024</f>
         <v>19.04296875</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="41">
         <f>Sheet1!Q7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="41">
         <f>Sheet1!C15</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="41">
         <f>(Sheet1!D15)/1024</f>
         <v>5.56640625</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="41">
         <f>Sheet1!E15</f>
         <v>32</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="41">
         <f>Sheet1!O15</f>
         <v>4</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="41">
         <f>(Sheet1!P15)/1024</f>
         <v>53.41796875</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="41">
         <f>Sheet1!Q15</f>
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="41">
         <f>Sheet1!C17</f>
         <v>1.2909999999999999</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="41">
         <f>(Sheet1!D17)/1024</f>
         <v>7.2265625</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="41">
         <f>Sheet1!E17</f>
         <v>32</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="41">
         <f>Sheet1!O17</f>
         <v>7.1</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="41">
         <f>(Sheet1!P17)/1024</f>
         <v>72.4609375</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="41">
         <f>Sheet1!Q17</f>
         <v>150</v>
       </c>
@@ -3567,7 +5112,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3576,619 +5121,619 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="48" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="40">
         <f>Sheet1!B24</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="41">
         <f>Sheet1!C24</f>
         <v>5.56640625</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="41">
         <f>Sheet1!D24</f>
         <v>32</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <f>Sheet1!K24</f>
         <v>4</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="41">
         <f>Sheet1!L24</f>
         <v>53.41796875</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="41">
         <f>Sheet1!M24</f>
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="40">
         <f>Sheet1!B25</f>
         <v>1.5820000000000001</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="41">
         <f>Sheet1!C25</f>
         <v>11.1328125</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="41">
         <f>Sheet1!D25</f>
         <v>64</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <f>Sheet1!K25</f>
         <v>8</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="41">
         <f>Sheet1!L25</f>
         <v>106.8359375</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="41">
         <f>Sheet1!M25</f>
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
+      <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="40">
         <f>Sheet1!B26</f>
         <v>2.3730000000000002</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="41">
         <f>Sheet1!C26</f>
         <v>16.69921875</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="41">
         <f>Sheet1!D26</f>
         <v>96</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="40">
         <f>Sheet1!K26</f>
         <v>12</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="41">
         <f>Sheet1!L26</f>
         <v>160.25390625</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="41">
         <f>Sheet1!M26</f>
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="40">
         <f>Sheet1!B27</f>
         <v>3.1640000000000001</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="41">
         <f>Sheet1!C27</f>
         <v>22.265625</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="41">
         <f>Sheet1!D27</f>
         <v>128</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="40">
         <f>Sheet1!K27</f>
         <v>16</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="41">
         <f>Sheet1!L27</f>
         <v>213.671875</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="41">
         <f>Sheet1!M27</f>
         <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="48">
+      <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="40">
         <f>Sheet1!B28</f>
         <v>3.9550000000000001</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="41">
         <f>Sheet1!C28</f>
         <v>27.83203125</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="41">
         <f>Sheet1!D28</f>
         <v>160</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="40">
         <f>Sheet1!K28</f>
         <v>20</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="41">
         <f>Sheet1!L28</f>
         <v>267.08984375</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="41">
         <f>Sheet1!M28</f>
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="48">
+      <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="40">
         <f>Sheet1!B29</f>
         <v>4.7460000000000004</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="41">
         <f>Sheet1!C29</f>
         <v>33.3984375</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="41">
         <f>Sheet1!D29</f>
         <v>192</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="40">
         <f>Sheet1!K29</f>
         <v>24</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="41">
         <f>Sheet1!L29</f>
         <v>320.5078125</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="41">
         <f>Sheet1!M29</f>
         <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
+      <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="40">
         <f>Sheet1!B30</f>
         <v>5.5369999999999999</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="41">
         <f>Sheet1!C30</f>
         <v>38.96484375</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="41">
         <f>Sheet1!D30</f>
         <v>224</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="40">
         <f>Sheet1!K30</f>
         <v>28</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="41">
         <f>Sheet1!L30</f>
         <v>373.92578125</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="41">
         <f>Sheet1!M30</f>
         <v>1050</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="48">
+      <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="40">
         <f>Sheet1!B31</f>
         <v>6.3280000000000003</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="41">
         <f>Sheet1!C31</f>
         <v>44.53125</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="41">
         <f>Sheet1!D31</f>
         <v>256</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="40">
         <f>Sheet1!K31</f>
         <v>32</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="41">
         <f>Sheet1!L31</f>
         <v>427.34375</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="41">
         <f>Sheet1!M31</f>
         <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
+      <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="40">
         <f>Sheet1!B32</f>
         <v>7.1190000000000007</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="41">
         <f>Sheet1!C32</f>
         <v>50.09765625</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="41">
         <f>Sheet1!D32</f>
         <v>288</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="40">
         <f>Sheet1!K32</f>
         <v>36</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="41">
         <f>Sheet1!L32</f>
         <v>480.76171875</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="41">
         <f>Sheet1!M32</f>
         <v>1350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="40">
         <f>Sheet1!B33</f>
         <v>7.91</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="41">
         <f>Sheet1!C33</f>
         <v>55.6640625</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="41">
         <f>Sheet1!D33</f>
         <v>320</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="40">
         <f>Sheet1!K33</f>
         <v>40</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="41">
         <f>Sheet1!L33</f>
         <v>534.1796875</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="41">
         <f>Sheet1!M33</f>
         <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
+      <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="40">
         <f>Sheet1!B34</f>
         <v>8.7010000000000005</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="41">
         <f>Sheet1!C34</f>
         <v>61.23046875</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="41">
         <f>Sheet1!D34</f>
         <v>352</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="40">
         <f>Sheet1!K34</f>
         <v>44</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="41">
         <f>Sheet1!L34</f>
         <v>587.59765625</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="41">
         <f>Sheet1!M34</f>
         <v>1650</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="48">
+      <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="40">
         <f>Sheet1!B35</f>
         <v>9.4920000000000009</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="41">
         <f>Sheet1!C35</f>
         <v>66.796875</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="41">
         <f>Sheet1!D35</f>
         <v>384</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="40">
         <f>Sheet1!K35</f>
         <v>48</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="41">
         <f>Sheet1!L35</f>
         <v>641.015625</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="41">
         <f>Sheet1!M35</f>
         <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="48">
+      <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="40">
         <f>Sheet1!B36</f>
         <v>10.283000000000001</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="41">
         <f>Sheet1!C36</f>
         <v>72.36328125</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="41">
         <f>Sheet1!D36</f>
         <v>416</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="40">
         <f>Sheet1!K36</f>
         <v>52</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="41">
         <f>Sheet1!L36</f>
         <v>694.43359375</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="41">
         <f>Sheet1!M36</f>
         <v>1950</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="48">
+      <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="40">
         <f>Sheet1!B37</f>
         <v>11.074</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="41">
         <f>Sheet1!C37</f>
         <v>77.9296875</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="41">
         <f>Sheet1!D37</f>
         <v>448</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="40">
         <f>Sheet1!K37</f>
         <v>56</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="41">
         <f>Sheet1!L37</f>
         <v>747.8515625</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="41">
         <f>Sheet1!M37</f>
         <v>2100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
+      <c r="A17" s="39">
         <v>15</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="40">
         <f>Sheet1!B38</f>
         <v>11.865</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="41">
         <f>Sheet1!C38</f>
         <v>83.49609375</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="41">
         <f>Sheet1!D38</f>
         <v>480</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="40">
         <f>Sheet1!K38</f>
         <v>60</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="41">
         <f>Sheet1!L38</f>
         <v>801.26953125</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="41">
         <f>Sheet1!M38</f>
         <v>2250</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="48">
+      <c r="A18" s="39">
         <v>16</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="40">
         <f>Sheet1!B39</f>
         <v>12.656000000000001</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="41">
         <f>Sheet1!C39</f>
         <v>89.0625</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="41">
         <f>Sheet1!D39</f>
         <v>512</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="40">
         <f>Sheet1!K39</f>
         <v>64</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="41">
         <f>Sheet1!L39</f>
         <v>854.6875</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="41">
         <f>Sheet1!M39</f>
         <v>2400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="48">
+      <c r="A19" s="39">
         <v>17</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="40">
         <f>Sheet1!B40</f>
         <v>13.447000000000001</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="41">
         <f>Sheet1!C40</f>
         <v>94.62890625</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="41">
         <f>Sheet1!D40</f>
         <v>544</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="40">
         <f>Sheet1!K40</f>
         <v>68</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="41">
         <f>Sheet1!L40</f>
         <v>908.10546875</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="41">
         <f>Sheet1!M40</f>
         <v>2550</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="48">
+      <c r="A20" s="39">
         <v>18</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="40">
         <f>Sheet1!B41</f>
         <v>14.238000000000001</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="41">
         <f>Sheet1!C41</f>
         <v>100.1953125</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="41">
         <f>Sheet1!D41</f>
         <v>576</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="40">
         <f>Sheet1!K41</f>
         <v>72</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="41">
         <f>Sheet1!L41</f>
         <v>961.5234375</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="41">
         <f>Sheet1!M41</f>
         <v>2700</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
+      <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="40">
         <f>Sheet1!B42</f>
         <v>15.029</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="41">
         <f>Sheet1!C42</f>
         <v>105.76171875</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="41">
         <f>Sheet1!D42</f>
         <v>608</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="40">
         <f>Sheet1!K42</f>
         <v>76</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="41">
         <f>Sheet1!L42</f>
         <v>1014.94140625</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="41">
         <f>Sheet1!M42</f>
         <v>2850</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
+      <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="40">
         <f>Sheet1!B43</f>
         <v>15.82</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="41">
         <f>Sheet1!C43</f>
         <v>111.328125</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="41">
         <f>Sheet1!D43</f>
         <v>640</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="40">
         <f>Sheet1!K43</f>
         <v>80</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="41">
         <f>Sheet1!L43</f>
         <v>1068.359375</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="41">
         <f>Sheet1!M43</f>
         <v>3000</v>
       </c>
@@ -4199,11 +5744,644 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A115B4FD-560C-A543-87B9-95B3AFC6627B}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40">
+        <f>Sheet1!B49</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="41">
+        <f>Sheet1!C49</f>
+        <v>1.66015625</v>
+      </c>
+      <c r="D3" s="41">
+        <f>Sheet1!D49</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="40">
+        <f>Sheet1!K49</f>
+        <v>3.1</v>
+      </c>
+      <c r="F3" s="41">
+        <f>Sheet1!L49</f>
+        <v>19.04296875</v>
+      </c>
+      <c r="G3" s="41">
+        <f>Sheet1!M49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="39">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40">
+        <f>Sheet1!B50</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="41">
+        <f>Sheet1!C50</f>
+        <v>3.3203125</v>
+      </c>
+      <c r="D4" s="41">
+        <f>Sheet1!D50</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <f>Sheet1!K50</f>
+        <v>6.2</v>
+      </c>
+      <c r="F4" s="41">
+        <f>Sheet1!L50</f>
+        <v>38.0859375</v>
+      </c>
+      <c r="G4" s="41">
+        <f>Sheet1!M50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40">
+        <f>Sheet1!B51</f>
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="41">
+        <f>Sheet1!C51</f>
+        <v>4.98046875</v>
+      </c>
+      <c r="D5" s="41">
+        <f>Sheet1!D51</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <f>Sheet1!K51</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F5" s="41">
+        <f>Sheet1!L51</f>
+        <v>57.12890625</v>
+      </c>
+      <c r="G5" s="41">
+        <f>Sheet1!M51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40">
+        <f>Sheet1!B52</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="41">
+        <f>Sheet1!C52</f>
+        <v>6.640625</v>
+      </c>
+      <c r="D6" s="41">
+        <f>Sheet1!D52</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <f>Sheet1!K52</f>
+        <v>12.4</v>
+      </c>
+      <c r="F6" s="41">
+        <f>Sheet1!L52</f>
+        <v>76.171875</v>
+      </c>
+      <c r="G6" s="41">
+        <f>Sheet1!M52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40">
+        <f>Sheet1!B53</f>
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="41">
+        <f>Sheet1!C53</f>
+        <v>8.30078125</v>
+      </c>
+      <c r="D7" s="41">
+        <f>Sheet1!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <f>Sheet1!K53</f>
+        <v>15.5</v>
+      </c>
+      <c r="F7" s="41">
+        <f>Sheet1!L53</f>
+        <v>95.21484375</v>
+      </c>
+      <c r="G7" s="41">
+        <f>Sheet1!M53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="39">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40">
+        <f>Sheet1!B54</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="41">
+        <f>Sheet1!C54</f>
+        <v>9.9609375</v>
+      </c>
+      <c r="D8" s="41">
+        <f>Sheet1!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <f>Sheet1!K54</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F8" s="41">
+        <f>Sheet1!L54</f>
+        <v>114.2578125</v>
+      </c>
+      <c r="G8" s="41">
+        <f>Sheet1!M54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40">
+        <f>Sheet1!B55</f>
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="41">
+        <f>Sheet1!C55</f>
+        <v>11.62109375</v>
+      </c>
+      <c r="D9" s="41">
+        <f>Sheet1!D55</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <f>Sheet1!K55</f>
+        <v>21.7</v>
+      </c>
+      <c r="F9" s="41">
+        <f>Sheet1!L55</f>
+        <v>133.30078125</v>
+      </c>
+      <c r="G9" s="41">
+        <f>Sheet1!M55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
+        <v>8</v>
+      </c>
+      <c r="B10" s="40">
+        <f>Sheet1!B56</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="41">
+        <f>Sheet1!C56</f>
+        <v>13.28125</v>
+      </c>
+      <c r="D10" s="41">
+        <f>Sheet1!D56</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="40">
+        <f>Sheet1!K56</f>
+        <v>24.8</v>
+      </c>
+      <c r="F10" s="41">
+        <f>Sheet1!L56</f>
+        <v>152.34375</v>
+      </c>
+      <c r="G10" s="41">
+        <f>Sheet1!M56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
+        <v>9</v>
+      </c>
+      <c r="B11" s="40">
+        <f>Sheet1!B57</f>
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="41">
+        <f>Sheet1!C57</f>
+        <v>14.94140625</v>
+      </c>
+      <c r="D11" s="41">
+        <f>Sheet1!D57</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <f>Sheet1!K57</f>
+        <v>27.900000000000002</v>
+      </c>
+      <c r="F11" s="41">
+        <f>Sheet1!L57</f>
+        <v>171.38671875</v>
+      </c>
+      <c r="G11" s="41">
+        <f>Sheet1!M57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="39">
+        <v>10</v>
+      </c>
+      <c r="B12" s="40">
+        <f>Sheet1!B58</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="41">
+        <f>Sheet1!C58</f>
+        <v>16.6015625</v>
+      </c>
+      <c r="D12" s="41">
+        <f>Sheet1!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="40">
+        <f>Sheet1!K58</f>
+        <v>31</v>
+      </c>
+      <c r="F12" s="41">
+        <f>Sheet1!L58</f>
+        <v>190.4296875</v>
+      </c>
+      <c r="G12" s="41">
+        <f>Sheet1!M58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="39">
+        <v>11</v>
+      </c>
+      <c r="B13" s="40">
+        <f>Sheet1!B59</f>
+        <v>5.5</v>
+      </c>
+      <c r="C13" s="41">
+        <f>Sheet1!C59</f>
+        <v>18.26171875</v>
+      </c>
+      <c r="D13" s="41">
+        <f>Sheet1!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="40">
+        <f>Sheet1!K59</f>
+        <v>34.1</v>
+      </c>
+      <c r="F13" s="41">
+        <f>Sheet1!L59</f>
+        <v>209.47265625</v>
+      </c>
+      <c r="G13" s="41">
+        <f>Sheet1!M59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="39">
+        <v>12</v>
+      </c>
+      <c r="B14" s="40">
+        <f>Sheet1!B60</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="41">
+        <f>Sheet1!C60</f>
+        <v>19.921875</v>
+      </c>
+      <c r="D14" s="41">
+        <f>Sheet1!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="40">
+        <f>Sheet1!K60</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F14" s="41">
+        <f>Sheet1!L60</f>
+        <v>228.515625</v>
+      </c>
+      <c r="G14" s="41">
+        <f>Sheet1!M60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="39">
+        <v>13</v>
+      </c>
+      <c r="B15" s="40">
+        <f>Sheet1!B61</f>
+        <v>6.5</v>
+      </c>
+      <c r="C15" s="41">
+        <f>Sheet1!C61</f>
+        <v>21.58203125</v>
+      </c>
+      <c r="D15" s="41">
+        <f>Sheet1!D61</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="40">
+        <f>Sheet1!K61</f>
+        <v>40.300000000000004</v>
+      </c>
+      <c r="F15" s="41">
+        <f>Sheet1!L61</f>
+        <v>247.55859375</v>
+      </c>
+      <c r="G15" s="41">
+        <f>Sheet1!M61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="39">
+        <v>14</v>
+      </c>
+      <c r="B16" s="40">
+        <f>Sheet1!B62</f>
+        <v>7</v>
+      </c>
+      <c r="C16" s="41">
+        <f>Sheet1!C62</f>
+        <v>23.2421875</v>
+      </c>
+      <c r="D16" s="41">
+        <f>Sheet1!D62</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
+        <f>Sheet1!K62</f>
+        <v>43.4</v>
+      </c>
+      <c r="F16" s="41">
+        <f>Sheet1!L62</f>
+        <v>266.6015625</v>
+      </c>
+      <c r="G16" s="41">
+        <f>Sheet1!M62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="39">
+        <v>15</v>
+      </c>
+      <c r="B17" s="40">
+        <f>Sheet1!B63</f>
+        <v>7.5</v>
+      </c>
+      <c r="C17" s="41">
+        <f>Sheet1!C63</f>
+        <v>24.90234375</v>
+      </c>
+      <c r="D17" s="41">
+        <f>Sheet1!D63</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="40">
+        <f>Sheet1!K63</f>
+        <v>46.5</v>
+      </c>
+      <c r="F17" s="41">
+        <f>Sheet1!L63</f>
+        <v>285.64453125</v>
+      </c>
+      <c r="G17" s="41">
+        <f>Sheet1!M63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="39">
+        <v>16</v>
+      </c>
+      <c r="B18" s="40">
+        <f>Sheet1!B64</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="41">
+        <f>Sheet1!C64</f>
+        <v>26.5625</v>
+      </c>
+      <c r="D18" s="41">
+        <f>Sheet1!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="40">
+        <f>Sheet1!K64</f>
+        <v>49.6</v>
+      </c>
+      <c r="F18" s="41">
+        <f>Sheet1!L64</f>
+        <v>304.6875</v>
+      </c>
+      <c r="G18" s="41">
+        <f>Sheet1!M64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="39">
+        <v>17</v>
+      </c>
+      <c r="B19" s="40">
+        <f>Sheet1!B65</f>
+        <v>8.5</v>
+      </c>
+      <c r="C19" s="41">
+        <f>Sheet1!C65</f>
+        <v>28.22265625</v>
+      </c>
+      <c r="D19" s="41">
+        <f>Sheet1!D65</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="40">
+        <f>Sheet1!K65</f>
+        <v>52.7</v>
+      </c>
+      <c r="F19" s="41">
+        <f>Sheet1!L65</f>
+        <v>323.73046875</v>
+      </c>
+      <c r="G19" s="41">
+        <f>Sheet1!M65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
+        <v>18</v>
+      </c>
+      <c r="B20" s="40">
+        <f>Sheet1!B66</f>
+        <v>9</v>
+      </c>
+      <c r="C20" s="41">
+        <f>Sheet1!C66</f>
+        <v>29.8828125</v>
+      </c>
+      <c r="D20" s="41">
+        <f>Sheet1!D66</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
+        <f>Sheet1!K66</f>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="F20" s="41">
+        <f>Sheet1!L66</f>
+        <v>342.7734375</v>
+      </c>
+      <c r="G20" s="41">
+        <f>Sheet1!M66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40">
+        <f>Sheet1!B67</f>
+        <v>9.5</v>
+      </c>
+      <c r="C21" s="41">
+        <f>Sheet1!C67</f>
+        <v>31.54296875</v>
+      </c>
+      <c r="D21" s="41">
+        <f>Sheet1!D67</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="40">
+        <f>Sheet1!K67</f>
+        <v>58.9</v>
+      </c>
+      <c r="F21" s="41">
+        <f>Sheet1!L67</f>
+        <v>361.81640625</v>
+      </c>
+      <c r="G21" s="41">
+        <f>Sheet1!M67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="39">
+        <v>20</v>
+      </c>
+      <c r="B22" s="40">
+        <f>Sheet1!B68</f>
+        <v>10</v>
+      </c>
+      <c r="C22" s="41">
+        <f>Sheet1!C68</f>
+        <v>33.203125</v>
+      </c>
+      <c r="D22" s="41">
+        <f>Sheet1!D68</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="40">
+        <f>Sheet1!K68</f>
+        <v>62</v>
+      </c>
+      <c r="F22" s="41">
+        <f>Sheet1!L68</f>
+        <v>380.859375</v>
+      </c>
+      <c r="G22" s="41">
+        <f>Sheet1!M68</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FE546-8080-2A45-A22C-2BF119538D85}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4215,7 +6393,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4224,16 +6402,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/doc/sourceFiles/fixedConfigSizes.xlsx
+++ b/doc/sourceFiles/fixedConfigSizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrosenbe/git/opensource/weathervane/doc/sourceFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\weathervane\doc\sourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BCBA16-93BA-3642-A203-17789750AC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3036C-6D9E-4489-938E-0FD9A093B287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{AF3EA68B-9CB6-DF4D-B5EE-93D818FB3527}"/>
+    <workbookView xWindow="1215" yWindow="1800" windowWidth="21840" windowHeight="12735" xr2:uid="{AF3EA68B-9CB6-DF4D-B5EE-93D818FB3527}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="48">
   <si>
     <t>Weathervane Version:</t>
   </si>
@@ -174,13 +174,13 @@
     <t>Also see this page: https://tableconvert.com/Excel-Converter/excel-to-markdown-table.html</t>
   </si>
   <si>
-    <t>2.0.4</t>
-  </si>
-  <si>
     <t>xsmall</t>
   </si>
   <si>
     <t>small2</t>
+  </si>
+  <si>
+    <t>small2-applimit2</t>
   </si>
 </sst>
 </file>
@@ -515,6 +515,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,13 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -989,62 +989,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250F6D4A-63AF-A141-9CAC-36EA1776C204}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:X20"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35" t="s">
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-    </row>
-    <row r="4" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+    </row>
+    <row r="4" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1120,8 +1138,20 @@
       <c r="Y4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1183,8 +1213,17 @@
       <c r="X5">
         <v>3700</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>700</v>
+      </c>
+      <c r="AJ5">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,8 +1285,17 @@
       <c r="X6">
         <v>1500</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>300</v>
+      </c>
+      <c r="AJ6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1359,18 @@
         <v>16300</v>
       </c>
       <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="7">
+        <f>SUM(AH5*AI5,AH6*AI6)/1000</f>
+        <v>3.1</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f>SUM(AH5*AJ5,AH6*AJ6)</f>
+        <v>16300</v>
+      </c>
+      <c r="AK7" s="7"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,8 +1447,20 @@
       <c r="Y8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>780</v>
+      </c>
+      <c r="AJ8">
+        <v>5500</v>
+      </c>
+      <c r="AK8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,8 +1522,17 @@
       <c r="X9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>2000</v>
+      </c>
+      <c r="AJ9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,8 +1595,17 @@
       <c r="X10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1950</v>
+      </c>
+      <c r="AJ10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1580,8 +1668,17 @@
       <c r="X11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>20</v>
+      </c>
+      <c r="AJ11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,8 +1740,17 @@
       <c r="X12">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>150</v>
+      </c>
+      <c r="AJ12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1720,8 +1826,20 @@
       <c r="Y13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>500</v>
+      </c>
+      <c r="AJ13">
+        <v>4000</v>
+      </c>
+      <c r="AK13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1798,8 +1916,20 @@
       <c r="Y14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>780</v>
+      </c>
+      <c r="AJ14">
+        <v>6000</v>
+      </c>
+      <c r="AK14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -1884,8 +2014,21 @@
         <f>SUM(V8*Y8,V13*Y13,V14*Y14)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="7">
+        <f>SUM(AH8*AI8,AH9*AI9,AH10*AI10,AH11*AI11,AH12*AI12,AH13*AI13,AH14*AI14)/1000</f>
+        <v>6.96</v>
+      </c>
+      <c r="AJ15" s="7">
+        <f>SUM(AH8*AJ8,AH9*AJ9,AH10*AJ10,AH11*AJ11,AH12*AJ12,AH13*AJ13,AH14*AJ14)</f>
+        <v>32600</v>
+      </c>
+      <c r="AK15" s="7">
+        <f>SUM(AH8*AK8,AH13*AK13,AH14*AK14)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
@@ -1898,8 +2041,10 @@
       <c r="U16" s="2"/>
       <c r="V16" s="1"/>
       <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH16" s="1"/>
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1981,59 +2126,72 @@
         <f>Y15</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="13">
+        <f>AI7+AI15</f>
+        <v>10.06</v>
+      </c>
+      <c r="AJ17" s="13">
+        <f>AJ7+AJ15</f>
+        <v>48900</v>
+      </c>
+      <c r="AK17" s="14">
+        <f>AK15</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="L18" s="26"/>
       <c r="X18" s="26"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="L19" s="26"/>
       <c r="X19" s="26"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="L20" s="26"/>
       <c r="X20" s="26"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="30" t="s">
+      <c r="M22" s="33"/>
+      <c r="N22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="30" t="s">
+      <c r="O22" s="33"/>
+      <c r="P22" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2086,7 +2244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2155,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A24+1</f>
         <v>2</v>
@@ -2225,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:A43" si="8">A25+1</f>
         <v>3</v>
@@ -2295,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -2365,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -2435,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -2505,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -2575,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -2645,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -2715,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -2785,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -2855,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -2925,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -2995,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="8"/>
         <v>14</v>
@@ -3065,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -3135,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="8"/>
         <v>16</v>
@@ -3205,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="8"/>
         <v>17</v>
@@ -3275,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="8"/>
         <v>18</v>
@@ -3345,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="8"/>
         <v>19</v>
@@ -3415,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="8"/>
         <v>20</v>
@@ -3486,21 +3644,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3508,27 +3669,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9404EA0-BEB2-2D4D-AB49-307F1D632573}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
@@ -3539,16 +3700,16 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="24" t="s">
         <v>9</v>
@@ -3578,7 +3739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
@@ -3586,7 +3747,7 @@
         <f>data!C7</f>
         <v>0.5</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="23">
         <f>(data!D7)/1024</f>
         <v>1.66015625</v>
       </c>
@@ -3598,7 +3759,7 @@
         <f>data!K7</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="23">
         <f>data!L7/1024</f>
         <v>9.375</v>
       </c>
@@ -3610,7 +3771,7 @@
         <f>data!W7</f>
         <v>3.1</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="23">
         <f>data!X7/1024</f>
         <v>15.91796875</v>
       </c>
@@ -3619,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
@@ -3627,7 +3788,7 @@
         <f>data!C15</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="23">
         <f>(data!D15)/1024</f>
         <v>5.56640625</v>
       </c>
@@ -3639,7 +3800,7 @@
         <f>data!K15</f>
         <v>2.59</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <f>data!L15/1024</f>
         <v>12.509765625</v>
       </c>
@@ -3651,7 +3812,7 @@
         <f>data!W15</f>
         <v>4.8</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="23">
         <f>data!X15/1024</f>
         <v>31.8359375</v>
       </c>
@@ -3660,39 +3821,39 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="23">
-        <f>B4+B3</f>
+        <f t="shared" ref="B5:H5" si="0">B4+B3</f>
         <v>1.2909999999999999</v>
       </c>
-      <c r="C5" s="29">
-        <f>C4+C3</f>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
         <v>7.2265625</v>
       </c>
       <c r="D5" s="23">
-        <f>D4+D3</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E5" s="23">
-        <f>E4+E3</f>
+        <f t="shared" si="0"/>
         <v>5.14</v>
       </c>
-      <c r="F5" s="29">
-        <f>F4+F3</f>
+      <c r="F5" s="23">
+        <f t="shared" si="0"/>
         <v>21.884765625</v>
       </c>
       <c r="G5" s="23">
-        <f>G4+G3</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H5" s="29">
-        <f>H4+H3</f>
+      <c r="H5" s="23">
+        <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="23">
         <f>I3+I4</f>
         <v>47.75390625</v>
       </c>
@@ -3701,8 +3862,112 @@
         <v>80</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23">
+        <f>data!AI7</f>
+        <v>3.1</v>
+      </c>
+      <c r="C11" s="23">
+        <f>data!AJ7/1024</f>
+        <v>15.91796875</v>
+      </c>
+      <c r="D11" s="23">
+        <f>data!AK7</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="23">
+        <f>data!AI15</f>
+        <v>6.96</v>
+      </c>
+      <c r="C12" s="23">
+        <f>data!AJ15/1024</f>
+        <v>31.8359375</v>
+      </c>
+      <c r="D12" s="23">
+        <f>data!AK15</f>
+        <v>87</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="23">
+        <f t="shared" ref="B13:D13" si="1">B12+B11</f>
+        <v>10.06</v>
+      </c>
+      <c r="C13" s="23">
+        <f>C11+C12</f>
+        <v>47.75390625</v>
+      </c>
+      <c r="D13" s="23">
+        <f>D11+D12</f>
+        <v>87</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3711,15 +3976,15 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
@@ -3730,16 +3995,16 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
@@ -3771,7 +4036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -3812,7 +4077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -3853,7 +4118,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -3894,7 +4159,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -3935,7 +4200,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -3976,7 +4241,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -4017,7 +4282,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -4058,7 +4323,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -4099,7 +4364,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -4140,7 +4405,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -4181,7 +4446,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -4222,7 +4487,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -4263,7 +4528,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -4304,7 +4569,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -4345,7 +4610,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -4386,7 +4651,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -4427,7 +4692,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -4468,7 +4733,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -4509,7 +4774,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -4550,7 +4815,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -4601,15 +4866,15 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
@@ -4620,16 +4885,16 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
@@ -4661,7 +4926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -4701,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -4741,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -4781,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -4821,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -4861,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -4901,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -4941,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -4981,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -5021,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -5061,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -5101,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -5141,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -5181,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -5221,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -5261,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -5301,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -5341,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -5381,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -5421,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -5470,28 +5735,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FE546-8080-2A45-A22C-2BF119538D85}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
@@ -5499,47 +5764,47 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>

--- a/doc/sourceFiles/fixedConfigSizes.xlsx
+++ b/doc/sourceFiles/fixedConfigSizes.xlsx
@@ -138,7 +138,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>https://tableconvert.com/</t>
@@ -209,11 +209,11 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,7 +222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -237,28 +243,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -267,16 +273,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -285,34 +291,34 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -321,13 +327,13 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -336,7 +342,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,25 +351,25 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -375,10 +381,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -387,13 +393,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -402,13 +408,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -420,10 +426,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -432,16 +438,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,7 +462,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,7 +474,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -495,7 +501,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -507,10 +513,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -522,7 +528,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -546,7 +552,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +564,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,13 +576,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,7 +606,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -612,7 +618,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -630,10 +636,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -642,13 +648,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -657,13 +663,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -678,7 +684,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -687,16 +693,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,19 +711,19 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -726,7 +732,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,7 +741,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -747,7 +753,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -762,11 +768,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -775,7 +781,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -783,17 +789,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -810,7 +816,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -818,38 +824,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,18 +864,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,289 +892,289 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="3" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1194,6 +1200,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="fffff2cb"/>
       <rgbColor rgb="ff0563c1"/>
@@ -1535,17 +1542,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1573,10 +1580,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1824,12 +1831,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2116,7 +2123,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2144,10 +2151,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3459,7 +3466,7 @@
         <v>1000</v>
       </c>
       <c r="E13" s="40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" s="37">
         <v>1</v>
@@ -3569,7 +3576,7 @@
         <v>1500</v>
       </c>
       <c r="E14" s="41">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14" s="26">
         <v>1</v>
@@ -3681,7 +3688,7 @@
       </c>
       <c r="E15" s="44">
         <f>SUM(B8*E8,B13*E13,B14*E14)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="31">
@@ -3846,7 +3853,7 @@
       </c>
       <c r="E17" s="53">
         <f>E15</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="52">
@@ -7026,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="80">
-        <f>'data'!W7</f>
+        <f>'data'!AM7</f>
         <v>3.1</v>
       </c>
       <c r="I3" s="80">
@@ -7052,7 +7059,7 @@
       </c>
       <c r="D4" s="80">
         <f>'data'!E15</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E4" s="80">
         <f>'data'!K15</f>
@@ -7067,8 +7074,8 @@
         <v>59</v>
       </c>
       <c r="H4" s="80">
-        <f>'data'!W15</f>
-        <v>4.8</v>
+        <f>'data'!AM15</f>
+        <v>6.91</v>
       </c>
       <c r="I4" s="80">
         <f>'data'!AN15/1024</f>
@@ -7093,7 +7100,7 @@
       </c>
       <c r="D5" s="80">
         <f>D4+D3</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5" s="80">
         <f>E4+E3</f>
@@ -7109,7 +7116,7 @@
       </c>
       <c r="H5" s="80">
         <f>H4+H3</f>
-        <v>7.9</v>
+        <v>10.01</v>
       </c>
       <c r="I5" s="80">
         <f>I3+I4</f>
@@ -7304,7 +7311,7 @@
       </c>
       <c r="D3" s="92">
         <f>$A3*'Table1'!D$4</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E3" s="92">
         <f>$A3*'Table1'!E$4</f>
@@ -7320,7 +7327,7 @@
       </c>
       <c r="H3" s="92">
         <f>$A3*'Table1'!H$4</f>
-        <v>4.8</v>
+        <v>6.91</v>
       </c>
       <c r="I3" s="92">
         <f>$A3*'Table1'!I$4</f>
@@ -7345,7 +7352,7 @@
       </c>
       <c r="D4" s="92">
         <f>$A4*'Table1'!D$4</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E4" s="92">
         <f>$A4*'Table1'!E$4</f>
@@ -7361,7 +7368,7 @@
       </c>
       <c r="H4" s="92">
         <f>$A4*'Table1'!H$4</f>
-        <v>9.6</v>
+        <v>13.82</v>
       </c>
       <c r="I4" s="92">
         <f>$A4*'Table1'!I$4</f>
@@ -7386,7 +7393,7 @@
       </c>
       <c r="D5" s="92">
         <f>$A5*'Table1'!D$4</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E5" s="92">
         <f>$A5*'Table1'!E$4</f>
@@ -7402,7 +7409,7 @@
       </c>
       <c r="H5" s="92">
         <f>$A5*'Table1'!H$4</f>
-        <v>14.4</v>
+        <v>20.73</v>
       </c>
       <c r="I5" s="92">
         <f>$A5*'Table1'!I$4</f>
@@ -7427,7 +7434,7 @@
       </c>
       <c r="D6" s="92">
         <f>$A6*'Table1'!D$4</f>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E6" s="92">
         <f>$A6*'Table1'!E$4</f>
@@ -7443,7 +7450,7 @@
       </c>
       <c r="H6" s="92">
         <f>$A6*'Table1'!H$4</f>
-        <v>19.2</v>
+        <v>27.64</v>
       </c>
       <c r="I6" s="92">
         <f>$A6*'Table1'!I$4</f>
@@ -7468,7 +7475,7 @@
       </c>
       <c r="D7" s="92">
         <f>$A7*'Table1'!D$4</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E7" s="92">
         <f>$A7*'Table1'!E$4</f>
@@ -7484,7 +7491,7 @@
       </c>
       <c r="H7" s="92">
         <f>$A7*'Table1'!H$4</f>
-        <v>24</v>
+        <v>34.55</v>
       </c>
       <c r="I7" s="92">
         <f>$A7*'Table1'!I$4</f>
@@ -7509,7 +7516,7 @@
       </c>
       <c r="D8" s="92">
         <f>$A8*'Table1'!D$4</f>
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="E8" s="92">
         <f>$A8*'Table1'!E$4</f>
@@ -7525,7 +7532,7 @@
       </c>
       <c r="H8" s="92">
         <f>$A8*'Table1'!H$4</f>
-        <v>28.8</v>
+        <v>41.46</v>
       </c>
       <c r="I8" s="92">
         <f>$A8*'Table1'!I$4</f>
@@ -7550,7 +7557,7 @@
       </c>
       <c r="D9" s="92">
         <f>$A9*'Table1'!D$4</f>
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="E9" s="92">
         <f>$A9*'Table1'!E$4</f>
@@ -7566,7 +7573,7 @@
       </c>
       <c r="H9" s="92">
         <f>$A9*'Table1'!H$4</f>
-        <v>33.6</v>
+        <v>48.37</v>
       </c>
       <c r="I9" s="92">
         <f>$A9*'Table1'!I$4</f>
@@ -7591,7 +7598,7 @@
       </c>
       <c r="D10" s="92">
         <f>$A10*'Table1'!D$4</f>
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E10" s="92">
         <f>$A10*'Table1'!E$4</f>
@@ -7607,7 +7614,7 @@
       </c>
       <c r="H10" s="92">
         <f>$A10*'Table1'!H$4</f>
-        <v>38.4</v>
+        <v>55.28</v>
       </c>
       <c r="I10" s="92">
         <f>$A10*'Table1'!I$4</f>
@@ -7632,7 +7639,7 @@
       </c>
       <c r="D11" s="92">
         <f>$A11*'Table1'!D$4</f>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="E11" s="92">
         <f>$A11*'Table1'!E$4</f>
@@ -7648,7 +7655,7 @@
       </c>
       <c r="H11" s="92">
         <f>$A11*'Table1'!H$4</f>
-        <v>43.2</v>
+        <v>62.19</v>
       </c>
       <c r="I11" s="92">
         <f>$A11*'Table1'!I$4</f>
@@ -7673,7 +7680,7 @@
       </c>
       <c r="D12" s="92">
         <f>$A12*'Table1'!D$4</f>
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="E12" s="92">
         <f>$A12*'Table1'!E$4</f>
@@ -7689,7 +7696,7 @@
       </c>
       <c r="H12" s="92">
         <f>$A12*'Table1'!H$4</f>
-        <v>48</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I12" s="92">
         <f>$A12*'Table1'!I$4</f>
@@ -7714,7 +7721,7 @@
       </c>
       <c r="D13" s="92">
         <f>$A13*'Table1'!D$4</f>
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="E13" s="92">
         <f>$A13*'Table1'!E$4</f>
@@ -7730,7 +7737,7 @@
       </c>
       <c r="H13" s="92">
         <f>$A13*'Table1'!H$4</f>
-        <v>52.8</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="I13" s="92">
         <f>$A13*'Table1'!I$4</f>
@@ -7755,7 +7762,7 @@
       </c>
       <c r="D14" s="92">
         <f>$A14*'Table1'!D$4</f>
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="E14" s="92">
         <f>$A14*'Table1'!E$4</f>
@@ -7771,7 +7778,7 @@
       </c>
       <c r="H14" s="92">
         <f>$A14*'Table1'!H$4</f>
-        <v>57.6</v>
+        <v>82.92</v>
       </c>
       <c r="I14" s="92">
         <f>$A14*'Table1'!I$4</f>
@@ -7796,7 +7803,7 @@
       </c>
       <c r="D15" s="92">
         <f>$A15*'Table1'!D$4</f>
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="E15" s="92">
         <f>$A15*'Table1'!E$4</f>
@@ -7812,7 +7819,7 @@
       </c>
       <c r="H15" s="92">
         <f>$A15*'Table1'!H$4</f>
-        <v>62.4</v>
+        <v>89.83</v>
       </c>
       <c r="I15" s="92">
         <f>$A15*'Table1'!I$4</f>
@@ -7837,7 +7844,7 @@
       </c>
       <c r="D16" s="92">
         <f>$A16*'Table1'!D$4</f>
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="E16" s="92">
         <f>$A16*'Table1'!E$4</f>
@@ -7853,7 +7860,7 @@
       </c>
       <c r="H16" s="92">
         <f>$A16*'Table1'!H$4</f>
-        <v>67.2</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="I16" s="92">
         <f>$A16*'Table1'!I$4</f>
@@ -7878,7 +7885,7 @@
       </c>
       <c r="D17" s="92">
         <f>$A17*'Table1'!D$4</f>
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E17" s="92">
         <f>$A17*'Table1'!E$4</f>
@@ -7894,7 +7901,7 @@
       </c>
       <c r="H17" s="92">
         <f>$A17*'Table1'!H$4</f>
-        <v>72</v>
+        <v>103.65</v>
       </c>
       <c r="I17" s="92">
         <f>$A17*'Table1'!I$4</f>
@@ -7919,7 +7926,7 @@
       </c>
       <c r="D18" s="92">
         <f>$A18*'Table1'!D$4</f>
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E18" s="92">
         <f>$A18*'Table1'!E$4</f>
@@ -7935,7 +7942,7 @@
       </c>
       <c r="H18" s="92">
         <f>$A18*'Table1'!H$4</f>
-        <v>76.8</v>
+        <v>110.56</v>
       </c>
       <c r="I18" s="92">
         <f>$A18*'Table1'!I$4</f>
@@ -7960,7 +7967,7 @@
       </c>
       <c r="D19" s="92">
         <f>$A19*'Table1'!D$4</f>
-        <v>544</v>
+        <v>272</v>
       </c>
       <c r="E19" s="92">
         <f>$A19*'Table1'!E$4</f>
@@ -7976,7 +7983,7 @@
       </c>
       <c r="H19" s="92">
         <f>$A19*'Table1'!H$4</f>
-        <v>81.59999999999999</v>
+        <v>117.47</v>
       </c>
       <c r="I19" s="92">
         <f>$A19*'Table1'!I$4</f>
@@ -8001,7 +8008,7 @@
       </c>
       <c r="D20" s="92">
         <f>$A20*'Table1'!D$4</f>
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="E20" s="92">
         <f>$A20*'Table1'!E$4</f>
@@ -8017,7 +8024,7 @@
       </c>
       <c r="H20" s="92">
         <f>$A20*'Table1'!H$4</f>
-        <v>86.40000000000001</v>
+        <v>124.38</v>
       </c>
       <c r="I20" s="92">
         <f>$A20*'Table1'!I$4</f>
@@ -8042,7 +8049,7 @@
       </c>
       <c r="D21" s="92">
         <f>$A21*'Table1'!D$4</f>
-        <v>608</v>
+        <v>304</v>
       </c>
       <c r="E21" s="92">
         <f>$A21*'Table1'!E$4</f>
@@ -8058,7 +8065,7 @@
       </c>
       <c r="H21" s="92">
         <f>$A21*'Table1'!H$4</f>
-        <v>91.2</v>
+        <v>131.29</v>
       </c>
       <c r="I21" s="92">
         <f>$A21*'Table1'!I$4</f>
@@ -8083,7 +8090,7 @@
       </c>
       <c r="D22" s="95">
         <f>$A22*'Table1'!D$4</f>
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E22" s="95">
         <f>$A22*'Table1'!E$4</f>
@@ -8099,7 +8106,7 @@
       </c>
       <c r="H22" s="95">
         <f>$A22*'Table1'!H$4</f>
-        <v>96</v>
+        <v>138.2</v>
       </c>
       <c r="I22" s="95">
         <f>$A22*'Table1'!I$4</f>
